--- a/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xylbk\Documents\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\LSY_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE812AEE-B68A-4EEA-8ED0-81526965F15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{41A80504-6C82-479D-8E67-BEEB5CA31582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Eーエラーメッセージ確認サーバ!$A$1:$AO$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="312">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1011,9 +1012,6 @@
     <t>UT-USER02-B-002</t>
   </si>
   <si>
-    <t>UT-USER02-B-010</t>
-  </si>
-  <si>
     <t>UT-USER02-B-011</t>
   </si>
   <si>
@@ -2149,61 +2147,65 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>EB李</t>
+    <t>UT-USER02-E-002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-B-004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-B-007</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-B-005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書変更よりケース不良</t>
+    <rPh sb="0" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-B-008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-B-015</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-B-020</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-B-026</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EB劉</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ数不具合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-B-010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EB劉</t>
     <rPh sb="2" eb="3">
       <t>リ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UT-USER02-E-002</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-004</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-007</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-005</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕様書変更よりケース不良</t>
-    <rPh sb="19" eb="21">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-015</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-020</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-026</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EB劉</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイズ数不具合</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3396,500 +3398,500 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4352,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="110"/>
       <c r="E3" s="27" t="s">
@@ -4366,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="109"/>
       <c r="K3" s="27" t="s">
@@ -4454,67 +4456,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="97" t="s">
+      <c r="P7" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="97" t="s">
+      <c r="Q7" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="101" t="s">
+      <c r="R7" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="102">
+      <c r="S7" s="115">
         <v>45069</v>
       </c>
-      <c r="T7" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="U7" s="97"/>
+      <c r="T7" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="U7" s="114"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="97"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
     </row>
     <row r="10" spans="2:28" ht="25.5">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
     </row>
     <row r="12" spans="2:28" ht="16.5">
       <c r="B12" s="32"/>
@@ -4522,42 +4524,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="98"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="99"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="103"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4571,18 +4573,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="99"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="99"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4597,18 +4599,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="99"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="99"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="103"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4621,12 +4623,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="103"/>
+      <c r="G25" s="116"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="99"/>
+      <c r="G26" s="103"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4773,21 +4775,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4798,6 +4785,21 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4818,8 +4820,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M24" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K5" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4834,33 +4836,33 @@
     <col min="22" max="22" width="30.75" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.625" style="1" customWidth="1"/>
     <col min="24" max="24" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.125" style="260" customWidth="1"/>
-    <col min="26" max="26" width="18" style="260" customWidth="1"/>
+    <col min="25" max="25" width="15.125" style="97" customWidth="1"/>
+    <col min="26" max="26" width="18" style="97" customWidth="1"/>
     <col min="27" max="27" width="25.375" style="1" customWidth="1"/>
     <col min="28" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:28" ht="15" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="140"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="135"/>
       <c r="U2" s="16"/>
       <c r="V2" s="104" t="s">
         <v>109</v>
@@ -4874,27 +4876,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
+      <c r="E3" s="136" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="136"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="141" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="141"/>
-      <c r="O3" s="142"/>
+      <c r="M3" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="N3" s="136"/>
+      <c r="O3" s="137"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4922,57 +4924,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="146" t="s">
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="146" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="147"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="146" t="s">
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="152"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="147"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="15" thickBot="1">
-      <c r="C6" s="143"/>
-      <c r="D6" s="145" t="s">
+      <c r="C6" s="138"/>
+      <c r="D6" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145" t="s">
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="153"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="148"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -4983,10 +4985,10 @@
       <c r="X6" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="Y6" s="261" t="s">
+      <c r="Y6" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="Z6" s="261" t="s">
+      <c r="Z6" s="98" t="s">
         <v>105</v>
       </c>
       <c r="AA6" s="20" t="s">
@@ -4997,32 +4999,32 @@
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123" t="s">
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123" t="s">
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="125" t="s">
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="126"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="124"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5033,42 +5035,42 @@
       <c r="X7" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="Y7" s="262"/>
-      <c r="Z7" s="262"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
       <c r="AA7" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="3:28" ht="28.5">
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="122" t="s">
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="118">
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="120">
         <v>8</v>
       </c>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118" t="s">
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="124"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="122"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5079,45 +5081,45 @@
       <c r="X8" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
       <c r="AA8" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="3:28" ht="28.5">
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="115" t="s">
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="122" t="s">
+      <c r="H9" s="130"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="115">
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="129">
         <v>5</v>
       </c>
-      <c r="N9" s="116"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="115" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="127"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="129" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="152"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>107</v>
@@ -5125,50 +5127,50 @@
       <c r="X9" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y9" s="264">
+      <c r="Y9" s="101">
         <v>45069</v>
       </c>
-      <c r="Z9" s="263" t="s">
-        <v>299</v>
+      <c r="Z9" s="100" t="s">
+        <v>308</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="3:28" ht="28.5">
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="134" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="119" t="s">
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="149" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="150"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="115">
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="129">
         <v>50</v>
       </c>
-      <c r="N10" s="116"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="127"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="152"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>107</v>
@@ -5176,11 +5178,11 @@
       <c r="X10" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y10" s="264">
+      <c r="Y10" s="101">
         <v>45069</v>
       </c>
-      <c r="Z10" s="263" t="s">
-        <v>299</v>
+      <c r="Z10" s="100" t="s">
+        <v>308</v>
       </c>
       <c r="AA10" s="19"/>
     </row>
@@ -5188,33 +5190,33 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118" t="s">
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="122" t="s">
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="118">
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="120">
         <v>50</v>
       </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="124"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="122"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>107</v>
@@ -5222,45 +5224,45 @@
       <c r="X11" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y11" s="264"/>
-      <c r="Z11" s="263"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="100"/>
       <c r="AA11" s="96" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="3:28" ht="28.5">
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="115" t="s">
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="116"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="122" t="s">
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="115">
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="129">
         <v>10</v>
       </c>
-      <c r="N12" s="116"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="115" t="s">
+      <c r="N12" s="130"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="127"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="152"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>107</v>
@@ -5268,48 +5270,48 @@
       <c r="X12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y12" s="264">
+      <c r="Y12" s="101">
         <v>45069</v>
       </c>
-      <c r="Z12" s="263" t="s">
-        <v>299</v>
+      <c r="Z12" s="100" t="s">
+        <v>308</v>
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="3:28" ht="28.5">
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="129" t="s">
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="119" t="s">
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="115">
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="129">
         <v>50</v>
       </c>
-      <c r="N13" s="116"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="127"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="152"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="W13" s="21" t="s">
         <v>107</v>
@@ -5317,11 +5319,11 @@
       <c r="X13" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y13" s="264">
+      <c r="Y13" s="101">
         <v>45069</v>
       </c>
-      <c r="Z13" s="263" t="s">
-        <v>299</v>
+      <c r="Z13" s="100" t="s">
+        <v>308</v>
       </c>
       <c r="AA13" s="19"/>
     </row>
@@ -5329,33 +5331,33 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="128" t="s">
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="122" t="s">
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="118">
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="120">
         <v>50</v>
       </c>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="124"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="122"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="W14" s="21" t="s">
         <v>107</v>
@@ -5363,43 +5365,43 @@
       <c r="X14" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y14" s="263"/>
-      <c r="Z14" s="263"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
       <c r="AA14" s="96"/>
     </row>
     <row r="15" spans="3:28" ht="28.5">
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="129" t="s">
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="119" t="s">
+      <c r="H15" s="154"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="115">
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="129">
         <v>16</v>
       </c>
-      <c r="N15" s="116"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="115" t="s">
+      <c r="N15" s="130"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="127"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="152"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W15" s="21" t="s">
         <v>107</v>
@@ -5407,48 +5409,48 @@
       <c r="X15" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="264">
+      <c r="Y15" s="101">
         <v>45069</v>
       </c>
-      <c r="Z15" s="263" t="s">
-        <v>299</v>
+      <c r="Z15" s="100" t="s">
+        <v>308</v>
       </c>
       <c r="AA15" s="19"/>
       <c r="AB15" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="3:28" ht="28.5">
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="129" t="s">
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="119" t="s">
+      <c r="H16" s="154"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="115">
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="129">
         <v>50</v>
       </c>
-      <c r="N16" s="116"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="127"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="152"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="W16" s="21" t="s">
         <v>107</v>
@@ -5456,45 +5458,43 @@
       <c r="X16" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y16" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z16" s="263" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA16" s="19"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="100"/>
+      <c r="AA16" s="19" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="17" spans="3:28" ht="28.5">
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="128" t="s">
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="122" t="s">
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="118">
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="120">
         <v>50</v>
       </c>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="124"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="122"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W17" s="21" t="s">
         <v>107</v>
@@ -5502,43 +5502,43 @@
       <c r="X17" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y17" s="263"/>
-      <c r="Z17" s="263"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
       <c r="AA17" s="96"/>
     </row>
     <row r="18" spans="3:28" ht="28.5">
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="115" t="s">
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="122" t="s">
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="115">
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="129">
         <v>6</v>
       </c>
-      <c r="N18" s="116"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="115" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="127"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="129" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="152"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>107</v>
@@ -5546,48 +5546,44 @@
       <c r="X18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y18" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z18" s="263" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="100"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="3:28" ht="28.5">
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="115" t="s">
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="119" t="s">
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="115">
+      <c r="K19" s="126"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="129">
         <v>50</v>
       </c>
-      <c r="N19" s="116"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="127"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="152"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W19" s="21" t="s">
         <v>107</v>
@@ -5595,47 +5591,43 @@
       <c r="X19" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y19" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z19" s="263" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="100"/>
       <c r="AA19" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="3:28" ht="28.5">
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="115" t="s">
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="119" t="s">
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="120"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="115">
+      <c r="K20" s="126"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="129">
         <v>50</v>
       </c>
-      <c r="N20" s="116"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="127"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="152"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W20" s="21" t="s">
         <v>107</v>
@@ -5643,47 +5635,43 @@
       <c r="X20" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y20" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z20" s="263" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="100"/>
       <c r="AA20" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="3:28" ht="28.5">
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118" t="s">
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="122" t="s">
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="118">
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="120">
         <v>50</v>
       </c>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="124"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="122"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="W21" s="21" t="s">
         <v>107</v>
@@ -5691,43 +5679,43 @@
       <c r="X21" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y21" s="263"/>
-      <c r="Z21" s="263"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
       <c r="AA21" s="96"/>
     </row>
     <row r="22" spans="3:28" ht="28.5">
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118" t="s">
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="122" t="s">
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="118">
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="120">
         <v>8</v>
       </c>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118" t="s">
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="124"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="122"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W22" s="21" t="s">
         <v>107</v>
@@ -5735,48 +5723,44 @@
       <c r="X22" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y22" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z22" s="263" t="s">
-        <v>160</v>
-      </c>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="100"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="3:28" ht="28.5">
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118" t="s">
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="122" t="s">
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="118">
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="120">
         <v>4</v>
       </c>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="124"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="122"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W23" s="21" t="s">
         <v>107</v>
@@ -5784,47 +5768,43 @@
       <c r="X23" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y23" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z23" s="263" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="100"/>
       <c r="AA23" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="3:28" ht="28.5">
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118" t="s">
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="122" t="s">
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="118">
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="120">
         <v>2</v>
       </c>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="124"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="122"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W24" s="21" t="s">
         <v>107</v>
@@ -5832,45 +5812,41 @@
       <c r="X24" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y24" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z24" s="263" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="100"/>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" spans="3:28" ht="28.5">
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118" t="s">
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="122" t="s">
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="118">
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="120">
         <v>2</v>
       </c>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="124"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="122"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W25" s="21" t="s">
         <v>107</v>
@@ -5878,45 +5854,41 @@
       <c r="X25" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y25" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z25" s="263" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="100"/>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" spans="3:28" ht="28.5">
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118" t="s">
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="122" t="s">
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="118">
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="120">
         <v>50</v>
       </c>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="124"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="122"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W26" s="21" t="s">
         <v>107</v>
@@ -5924,43 +5896,43 @@
       <c r="X26" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y26" s="263"/>
-      <c r="Z26" s="263"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
       <c r="AA26" s="96"/>
     </row>
     <row r="27" spans="3:28" ht="28.5">
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118" t="s">
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="122" t="s">
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="122"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="125">
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="123">
         <v>10</v>
       </c>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="118" t="s">
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="124"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="122"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W27" s="21" t="s">
         <v>107</v>
@@ -5968,50 +5940,46 @@
       <c r="X27" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y27" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z27" s="263" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="100"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="3:28" ht="28.5">
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="118" t="s">
+      <c r="D28" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118" t="s">
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="122" t="s">
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="123">
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="128">
         <v>4</v>
       </c>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="125" t="s">
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="126"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="124"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W28" s="21" t="s">
         <v>107</v>
@@ -6019,48 +5987,44 @@
       <c r="X28" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y28" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z28" s="263" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="100"/>
       <c r="AA28" s="19"/>
       <c r="AB28" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="3:28" ht="28.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="118" t="s">
+      <c r="D29" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118" t="s">
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="122" t="s">
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="123" t="s">
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="125" t="s">
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="125"/>
-      <c r="S29" s="126"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="124"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W29" s="21" t="s">
         <v>107</v>
@@ -6068,43 +6032,43 @@
       <c r="X29" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y29" s="263"/>
-      <c r="Z29" s="263"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" spans="3:28" ht="28.5">
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="118" t="s">
+      <c r="D30" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118" t="s">
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="122" t="s">
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="123">
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="128">
         <v>6</v>
       </c>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="125" t="s">
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="126"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="124"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W30" s="21" t="s">
         <v>107</v>
@@ -6112,48 +6076,44 @@
       <c r="X30" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y30" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z30" s="263" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="100"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="3:28" ht="28.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="118" t="s">
+      <c r="D31" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118" t="s">
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="122" t="s">
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="123" t="s">
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="125" t="s">
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="126"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="124"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W31" s="21" t="s">
         <v>107</v>
@@ -6161,45 +6121,41 @@
       <c r="X31" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y31" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z31" s="263" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="100"/>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" spans="3:28" ht="28.5">
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="118" t="s">
+      <c r="D32" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118" t="s">
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="122" t="s">
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="118">
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="120">
         <v>50</v>
       </c>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="124"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="122"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W32" s="21" t="s">
         <v>107</v>
@@ -6207,43 +6163,43 @@
       <c r="X32" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y32" s="263"/>
-      <c r="Z32" s="263"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
       <c r="AA32" s="96"/>
     </row>
     <row r="33" spans="3:28" ht="28.5">
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="115" t="s">
+      <c r="D33" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="116"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="115" t="s">
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="122" t="s">
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="115">
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="129">
         <v>4</v>
       </c>
-      <c r="N33" s="116"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="125" t="s">
+      <c r="N33" s="130"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="125"/>
-      <c r="R33" s="125"/>
-      <c r="S33" s="126"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="124"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W33" s="21" t="s">
         <v>107</v>
@@ -6251,48 +6207,44 @@
       <c r="X33" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y33" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z33" s="263" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="100"/>
       <c r="AA33" s="19"/>
       <c r="AB33" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="3:28" ht="28.5">
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="118" t="s">
+      <c r="D34" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118" t="s">
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="119" t="s">
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="120"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="118">
+      <c r="K34" s="126"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="120">
         <v>80</v>
       </c>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="125"/>
-      <c r="Q34" s="125"/>
-      <c r="R34" s="125"/>
-      <c r="S34" s="126"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="124"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W34" s="21" t="s">
         <v>107</v>
@@ -6300,47 +6252,43 @@
       <c r="X34" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y34" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z34" s="263" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y34" s="101"/>
+      <c r="Z34" s="100"/>
       <c r="AA34" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="3:28" ht="28.5">
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="118" t="s">
+      <c r="D35" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118" t="s">
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="122" t="s">
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="118">
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="120">
         <v>50</v>
       </c>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="124"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="122"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W35" s="21" t="s">
         <v>107</v>
@@ -6348,43 +6296,43 @@
       <c r="X35" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y35" s="263"/>
-      <c r="Z35" s="263"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
       <c r="AA35" s="96"/>
     </row>
     <row r="36" spans="3:28" ht="28.5">
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="118" t="s">
+      <c r="D36" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118" t="s">
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="122" t="s">
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="118">
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="120">
         <v>4</v>
       </c>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
-      <c r="P36" s="125" t="s">
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="125"/>
-      <c r="R36" s="125"/>
-      <c r="S36" s="126"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="124"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W36" s="21" t="s">
         <v>107</v>
@@ -6392,48 +6340,44 @@
       <c r="X36" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y36" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z36" s="263" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="100"/>
       <c r="AA36" s="19"/>
       <c r="AB36" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="3:28" ht="28.5">
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="118" t="s">
+      <c r="D37" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118" t="s">
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="119" t="s">
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="120"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="118">
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="120">
         <v>100</v>
       </c>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="125"/>
-      <c r="S37" s="126"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="124"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W37" s="21" t="s">
         <v>107</v>
@@ -6441,47 +6385,43 @@
       <c r="X37" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y37" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z37" s="263" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y37" s="101"/>
+      <c r="Z37" s="100"/>
       <c r="AA37" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="3:28" ht="28.5">
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="118" t="s">
+      <c r="D38" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118" t="s">
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="122" t="s">
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="118">
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="120">
         <v>50</v>
       </c>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="118"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="124"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="122"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W38" s="21" t="s">
         <v>107</v>
@@ -6489,43 +6429,43 @@
       <c r="X38" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y38" s="263"/>
-      <c r="Z38" s="263"/>
+      <c r="Y38" s="100"/>
+      <c r="Z38" s="100"/>
       <c r="AA38" s="96"/>
     </row>
     <row r="39" spans="3:28" ht="28.5">
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="115" t="s">
+      <c r="D39" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="116"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="115" t="s">
+      <c r="E39" s="130"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="116"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="119" t="s">
+      <c r="H39" s="130"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="120"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="115" t="s">
+      <c r="K39" s="126"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="116"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="115" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-      <c r="S39" s="127"/>
+      <c r="N39" s="130"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="129" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q39" s="130"/>
+      <c r="R39" s="130"/>
+      <c r="S39" s="152"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W39" s="21" t="s">
         <v>107</v>
@@ -6533,50 +6473,46 @@
       <c r="X39" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y39" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z39" s="263" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y39" s="101"/>
+      <c r="Z39" s="100"/>
       <c r="AA39" s="19"/>
       <c r="AB39" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="3:28" ht="28.5">
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="115" t="s">
+      <c r="D40" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="116"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="115" t="s">
+      <c r="E40" s="130"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="116"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="119" t="s">
+      <c r="H40" s="130"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="120"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="115" t="s">
+      <c r="K40" s="126"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="116"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="115" t="s">
+      <c r="N40" s="130"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="127"/>
+      <c r="Q40" s="130"/>
+      <c r="R40" s="130"/>
+      <c r="S40" s="152"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W40" s="21" t="s">
         <v>107</v>
@@ -6584,530 +6520,526 @@
       <c r="X40" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y40" s="264">
-        <v>45069</v>
-      </c>
-      <c r="Z40" s="263" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="100"/>
       <c r="AA40" s="19"/>
       <c r="AB40" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="115"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="115"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="127"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="130"/>
+      <c r="R41" s="130"/>
+      <c r="S41" s="152"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
       <c r="X41" s="19"/>
-      <c r="Y41" s="263"/>
-      <c r="Z41" s="263"/>
+      <c r="Y41" s="100"/>
+      <c r="Z41" s="100"/>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="117"/>
-      <c r="P42" s="115"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="127"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="129"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="129"/>
+      <c r="Q42" s="130"/>
+      <c r="R42" s="130"/>
+      <c r="S42" s="152"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
       <c r="X42" s="19"/>
-      <c r="Y42" s="263"/>
-      <c r="Z42" s="263"/>
+      <c r="Y42" s="100"/>
+      <c r="Z42" s="100"/>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="115"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="115"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="127"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="130"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="130"/>
+      <c r="S43" s="152"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
       <c r="X43" s="19"/>
-      <c r="Y43" s="263"/>
-      <c r="Z43" s="263"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="100"/>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="116"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="127"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="131"/>
+      <c r="M44" s="129"/>
+      <c r="N44" s="130"/>
+      <c r="O44" s="131"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="130"/>
+      <c r="R44" s="130"/>
+      <c r="S44" s="152"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
       <c r="X44" s="19"/>
-      <c r="Y44" s="263"/>
-      <c r="Z44" s="263"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="115"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="116"/>
-      <c r="S45" s="127"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="131"/>
+      <c r="M45" s="129"/>
+      <c r="N45" s="130"/>
+      <c r="O45" s="131"/>
+      <c r="P45" s="129"/>
+      <c r="Q45" s="130"/>
+      <c r="R45" s="130"/>
+      <c r="S45" s="152"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
-      <c r="Y45" s="263"/>
-      <c r="Z45" s="263"/>
+      <c r="Y45" s="100"/>
+      <c r="Z45" s="100"/>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="117"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="115"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="127"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="131"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="131"/>
+      <c r="P46" s="129"/>
+      <c r="Q46" s="130"/>
+      <c r="R46" s="130"/>
+      <c r="S46" s="152"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
       <c r="X46" s="19"/>
-      <c r="Y46" s="263"/>
-      <c r="Z46" s="263"/>
+      <c r="Y46" s="100"/>
+      <c r="Z46" s="100"/>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="116"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="115"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="116"/>
-      <c r="S47" s="127"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="130"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="129"/>
+      <c r="N47" s="130"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="129"/>
+      <c r="Q47" s="130"/>
+      <c r="R47" s="130"/>
+      <c r="S47" s="152"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
-      <c r="Y47" s="263"/>
-      <c r="Z47" s="263"/>
+      <c r="Y47" s="100"/>
+      <c r="Z47" s="100"/>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="116"/>
-      <c r="L48" s="117"/>
-      <c r="M48" s="115"/>
-      <c r="N48" s="116"/>
-      <c r="O48" s="117"/>
-      <c r="P48" s="115"/>
-      <c r="Q48" s="116"/>
-      <c r="R48" s="116"/>
-      <c r="S48" s="127"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="130"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="152"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
       <c r="X48" s="19"/>
-      <c r="Y48" s="263"/>
-      <c r="Z48" s="263"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="116"/>
-      <c r="L49" s="117"/>
-      <c r="M49" s="115"/>
-      <c r="N49" s="116"/>
-      <c r="O49" s="117"/>
-      <c r="P49" s="115"/>
-      <c r="Q49" s="116"/>
-      <c r="R49" s="116"/>
-      <c r="S49" s="127"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="130"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="152"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
       <c r="X49" s="19"/>
-      <c r="Y49" s="263"/>
-      <c r="Z49" s="263"/>
+      <c r="Y49" s="100"/>
+      <c r="Z49" s="100"/>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="117"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="117"/>
-      <c r="M50" s="115"/>
-      <c r="N50" s="116"/>
-      <c r="O50" s="117"/>
-      <c r="P50" s="115"/>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="116"/>
-      <c r="S50" s="127"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="129"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="131"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="130"/>
+      <c r="O50" s="131"/>
+      <c r="P50" s="129"/>
+      <c r="Q50" s="130"/>
+      <c r="R50" s="130"/>
+      <c r="S50" s="152"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
       <c r="X50" s="19"/>
-      <c r="Y50" s="263"/>
-      <c r="Z50" s="263"/>
+      <c r="Y50" s="100"/>
+      <c r="Z50" s="100"/>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
-      <c r="M51" s="125"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="125"/>
-      <c r="P51" s="125"/>
-      <c r="Q51" s="125"/>
-      <c r="R51" s="125"/>
-      <c r="S51" s="126"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="123"/>
+      <c r="N51" s="123"/>
+      <c r="O51" s="123"/>
+      <c r="P51" s="123"/>
+      <c r="Q51" s="123"/>
+      <c r="R51" s="123"/>
+      <c r="S51" s="124"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
       <c r="X51" s="19"/>
-      <c r="Y51" s="263"/>
-      <c r="Z51" s="263"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="100"/>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125"/>
-      <c r="Q52" s="125"/>
-      <c r="R52" s="125"/>
-      <c r="S52" s="126"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="123"/>
+      <c r="M52" s="123"/>
+      <c r="N52" s="123"/>
+      <c r="O52" s="123"/>
+      <c r="P52" s="123"/>
+      <c r="Q52" s="123"/>
+      <c r="R52" s="123"/>
+      <c r="S52" s="124"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
       <c r="X52" s="19"/>
-      <c r="Y52" s="263"/>
-      <c r="Z52" s="263"/>
+      <c r="Y52" s="100"/>
+      <c r="Z52" s="100"/>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="125"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="125"/>
-      <c r="O53" s="125"/>
-      <c r="P53" s="125"/>
-      <c r="Q53" s="125"/>
-      <c r="R53" s="125"/>
-      <c r="S53" s="126"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="123"/>
+      <c r="M53" s="123"/>
+      <c r="N53" s="123"/>
+      <c r="O53" s="123"/>
+      <c r="P53" s="123"/>
+      <c r="Q53" s="123"/>
+      <c r="R53" s="123"/>
+      <c r="S53" s="124"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
-      <c r="Y53" s="263"/>
-      <c r="Z53" s="263"/>
+      <c r="Y53" s="100"/>
+      <c r="Z53" s="100"/>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125"/>
-      <c r="Q54" s="125"/>
-      <c r="R54" s="125"/>
-      <c r="S54" s="126"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
+      <c r="P54" s="123"/>
+      <c r="Q54" s="123"/>
+      <c r="R54" s="123"/>
+      <c r="S54" s="124"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
-      <c r="Y54" s="263"/>
-      <c r="Z54" s="263"/>
+      <c r="Y54" s="100"/>
+      <c r="Z54" s="100"/>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
-      <c r="M55" s="125"/>
-      <c r="N55" s="125"/>
-      <c r="O55" s="125"/>
-      <c r="P55" s="125"/>
-      <c r="Q55" s="125"/>
-      <c r="R55" s="125"/>
-      <c r="S55" s="126"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
+      <c r="M55" s="123"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="123"/>
+      <c r="S55" s="124"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
-      <c r="M56" s="125"/>
-      <c r="N56" s="125"/>
-      <c r="O56" s="125"/>
-      <c r="P56" s="125"/>
-      <c r="Q56" s="125"/>
-      <c r="R56" s="125"/>
-      <c r="S56" s="126"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="123"/>
+      <c r="M56" s="123"/>
+      <c r="N56" s="123"/>
+      <c r="O56" s="123"/>
+      <c r="P56" s="123"/>
+      <c r="Q56" s="123"/>
+      <c r="R56" s="123"/>
+      <c r="S56" s="124"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="125"/>
-      <c r="K57" s="125"/>
-      <c r="L57" s="125"/>
-      <c r="M57" s="125"/>
-      <c r="N57" s="125"/>
-      <c r="O57" s="125"/>
-      <c r="P57" s="125"/>
-      <c r="Q57" s="125"/>
-      <c r="R57" s="125"/>
-      <c r="S57" s="126"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="123"/>
+      <c r="K57" s="123"/>
+      <c r="L57" s="123"/>
+      <c r="M57" s="123"/>
+      <c r="N57" s="123"/>
+      <c r="O57" s="123"/>
+      <c r="P57" s="123"/>
+      <c r="Q57" s="123"/>
+      <c r="R57" s="123"/>
+      <c r="S57" s="124"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="125"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="125"/>
-      <c r="N58" s="125"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
-      <c r="R58" s="125"/>
-      <c r="S58" s="126"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="123"/>
+      <c r="L58" s="123"/>
+      <c r="M58" s="123"/>
+      <c r="N58" s="123"/>
+      <c r="O58" s="123"/>
+      <c r="P58" s="123"/>
+      <c r="Q58" s="123"/>
+      <c r="R58" s="123"/>
+      <c r="S58" s="124"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="125"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="125"/>
-      <c r="O59" s="125"/>
-      <c r="P59" s="125"/>
-      <c r="Q59" s="125"/>
-      <c r="R59" s="125"/>
-      <c r="S59" s="126"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="123"/>
+      <c r="L59" s="123"/>
+      <c r="M59" s="123"/>
+      <c r="N59" s="123"/>
+      <c r="O59" s="123"/>
+      <c r="P59" s="123"/>
+      <c r="Q59" s="123"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="124"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="125"/>
-      <c r="M60" s="125"/>
-      <c r="N60" s="125"/>
-      <c r="O60" s="125"/>
-      <c r="P60" s="125"/>
-      <c r="Q60" s="125"/>
-      <c r="R60" s="125"/>
-      <c r="S60" s="126"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="123"/>
+      <c r="G60" s="123"/>
+      <c r="H60" s="123"/>
+      <c r="I60" s="123"/>
+      <c r="J60" s="123"/>
+      <c r="K60" s="123"/>
+      <c r="L60" s="123"/>
+      <c r="M60" s="123"/>
+      <c r="N60" s="123"/>
+      <c r="O60" s="123"/>
+      <c r="P60" s="123"/>
+      <c r="Q60" s="123"/>
+      <c r="R60" s="123"/>
+      <c r="S60" s="124"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="125"/>
-      <c r="K61" s="125"/>
-      <c r="L61" s="125"/>
-      <c r="M61" s="125"/>
-      <c r="N61" s="125"/>
-      <c r="O61" s="125"/>
-      <c r="P61" s="125"/>
-      <c r="Q61" s="125"/>
-      <c r="R61" s="125"/>
-      <c r="S61" s="126"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="123"/>
+      <c r="L61" s="123"/>
+      <c r="M61" s="123"/>
+      <c r="N61" s="123"/>
+      <c r="O61" s="123"/>
+      <c r="P61" s="123"/>
+      <c r="Q61" s="123"/>
+      <c r="R61" s="123"/>
+      <c r="S61" s="124"/>
     </row>
     <row r="62" spans="3:27" ht="15" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="132"/>
-      <c r="P62" s="132"/>
-      <c r="Q62" s="132"/>
-      <c r="R62" s="132"/>
-      <c r="S62" s="133"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="156"/>
+      <c r="K62" s="156"/>
+      <c r="L62" s="156"/>
+      <c r="M62" s="156"/>
+      <c r="N62" s="156"/>
+      <c r="O62" s="156"/>
+      <c r="P62" s="156"/>
+      <c r="Q62" s="156"/>
+      <c r="R62" s="156"/>
+      <c r="S62" s="157"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7124,37 +7056,243 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="V2:Y3"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:L11"/>
@@ -7179,243 +7317,37 @@
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:Y3"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7450,25 +7382,25 @@
   <sheetData>
     <row r="1" spans="3:27" ht="15" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="140"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="135"/>
       <c r="U2" s="16"/>
       <c r="V2" s="104"/>
       <c r="W2" s="105"/>
@@ -7480,35 +7412,35 @@
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="154" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="155"/>
+      <c r="E3" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="154" t="s">
+      <c r="I3" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="155"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="154" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="154"/>
-      <c r="O3" s="155"/>
+      <c r="M3" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="178"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="156">
+      <c r="Q3" s="180">
         <v>45069</v>
       </c>
-      <c r="R3" s="156"/>
-      <c r="S3" s="157"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="181"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
       <c r="V3" s="105"/>
@@ -7531,53 +7463,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="147"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="146" t="s">
+      <c r="E5" s="142"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="146" t="s">
+      <c r="H5" s="142"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="146" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="152"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="147"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="15" thickBot="1">
-      <c r="C6" s="143"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="153"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="148"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7602,28 +7534,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="161" t="s">
+      <c r="D7" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="161" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="158" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="162"/>
-      <c r="S7" s="163"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="164"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7638,42 +7570,42 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="161" t="s">
+      <c r="E8" s="176"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="162" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="163"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168" t="s">
-        <v>236</v>
-      </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="160"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="173"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="45"/>
       <c r="U8" s="16"/>
       <c r="V8" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W8" s="61" t="s">
         <v>125</v>
       </c>
       <c r="X8" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="3:27" ht="150" customHeight="1">
@@ -7696,60 +7628,60 @@
       <c r="S9" s="57"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>127</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="3:27" ht="136.9" customHeight="1">
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="173"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="161" t="s">
+      <c r="E10" s="166"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="162" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="163"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="169" t="s">
         <v>237</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="168" t="s">
-        <v>238</v>
-      </c>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="176"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="171"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
       <c r="S10" s="45"/>
       <c r="U10" s="16"/>
       <c r="V10" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W10" s="61" t="s">
         <v>125</v>
       </c>
       <c r="X10" s="62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="3:27" ht="148.9" customHeight="1">
@@ -7772,42 +7704,42 @@
       <c r="S11" s="57"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>127</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="3:27" ht="15" thickBot="1">
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="161" t="s">
+      <c r="E12" s="163"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="168" t="s">
+      <c r="H12" s="163"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="160"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="173"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7836,10 +7768,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="171"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="161"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7862,10 +7794,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="163"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="164"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8448,22 +8380,22 @@
     </row>
     <row r="37" spans="3:27" ht="15" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="132"/>
-      <c r="Q37" s="132"/>
-      <c r="R37" s="132"/>
-      <c r="S37" s="133"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="157"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8607,6 +8539,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8623,21 +8570,6 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8672,25 +8604,25 @@
   <sheetData>
     <row r="1" spans="3:28" ht="15" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="140"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="135"/>
       <c r="U2" s="16"/>
       <c r="V2" s="104"/>
       <c r="W2" s="105"/>
@@ -8702,35 +8634,35 @@
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="154" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="155"/>
+      <c r="E3" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="154" t="s">
+      <c r="I3" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="155"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="154" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="154"/>
-      <c r="O3" s="155"/>
+      <c r="M3" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="178"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="156">
+      <c r="Q3" s="180">
         <v>45069</v>
       </c>
-      <c r="R3" s="156"/>
-      <c r="S3" s="157"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="181"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
       <c r="V3" s="105"/>
@@ -8754,53 +8686,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="147"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="146" t="s">
+      <c r="E5" s="142"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="146" t="s">
+      <c r="H5" s="142"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="146" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="152"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="147"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="15" thickBot="1">
-      <c r="C6" s="143"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="153"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="148"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8825,28 +8757,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="161" t="s">
+      <c r="D7" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="161" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="161" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="162"/>
-      <c r="S7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="164"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8861,31 +8793,31 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="161" t="s">
+      <c r="E8" s="176"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="177" t="s">
+      <c r="H8" s="163"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="167"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="168"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="45"/>
       <c r="U8" s="16"/>
       <c r="V8" s="61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W8" s="61" t="s">
         <v>125</v>
@@ -8896,7 +8828,7 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="3:28" ht="90" customHeight="1">
@@ -8919,7 +8851,7 @@
       <c r="S9" s="57"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>127</v>
@@ -8930,38 +8862,38 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="3:28" ht="90" customHeight="1">
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="173"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="161" t="s">
+      <c r="E10" s="166"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="177" t="s">
+      <c r="H10" s="163"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="179"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="184"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
       <c r="S10" s="45"/>
       <c r="U10" s="16"/>
       <c r="V10" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W10" s="61" t="s">
         <v>125</v>
@@ -8972,7 +8904,7 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="3:28" ht="90" customHeight="1">
@@ -8995,7 +8927,7 @@
       <c r="S11" s="57"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>127</v>
@@ -9006,38 +8938,38 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="3:28" ht="90" customHeight="1">
       <c r="C12" s="42">
         <v>7</v>
       </c>
-      <c r="D12" s="180" t="s">
+      <c r="D12" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="181"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="161" t="s">
+      <c r="E12" s="186"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="177" t="s">
+      <c r="H12" s="163"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="178"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="178"/>
-      <c r="O12" s="179"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="184"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
       <c r="S12" s="45"/>
       <c r="U12" s="16"/>
       <c r="V12" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W12" s="61" t="s">
         <v>125</v>
@@ -9048,7 +8980,7 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="3:28" ht="90" customHeight="1">
@@ -9071,7 +9003,7 @@
       <c r="S13" s="57"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W13" s="21" t="s">
         <v>127</v>
@@ -9082,31 +9014,31 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="3:28" ht="90" customHeight="1" thickBot="1">
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="162"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="161" t="s">
+      <c r="E14" s="163"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="162"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="161" t="s">
+      <c r="H14" s="163"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="167"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="168"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9135,10 +9067,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="171"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="160"/>
+      <c r="S15" s="161"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9161,10 +9093,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="163"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="164"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9747,22 +9679,22 @@
     </row>
     <row r="39" spans="3:27" ht="15" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="132"/>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="132"/>
-      <c r="S39" s="133"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="156"/>
+      <c r="S39" s="157"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9888,12 +9820,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9910,18 +9848,12 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9967,32 +9899,32 @@
   <sheetData>
     <row r="1" spans="3:34" ht="15" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="137" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
+      <c r="C2" s="132" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="135"/>
       <c r="AB2" s="16"/>
       <c r="AC2" s="104"/>
       <c r="AD2" s="105"/>
@@ -10003,43 +9935,43 @@
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="154" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="155"/>
+      <c r="D3" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="154" t="s">
+      <c r="I3" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="155"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="154" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
+      <c r="M3" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="179"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="156">
+      <c r="R3" s="180">
         <v>45069</v>
       </c>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="157"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="181"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="105"/>
       <c r="AD3" s="105"/>
@@ -10059,75 +9991,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="183" t="s">
+      <c r="C5" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="225" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185" t="s">
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="225"/>
+      <c r="I5" s="225"/>
+      <c r="J5" s="225" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185" t="s">
+      <c r="K5" s="225"/>
+      <c r="L5" s="225"/>
+      <c r="M5" s="227" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="187" t="s">
+      <c r="N5" s="228"/>
+      <c r="O5" s="229"/>
+      <c r="P5" s="225" t="s">
         <v>165</v>
       </c>
-      <c r="N5" s="188"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="185" t="s">
+      <c r="Q5" s="225" t="s">
         <v>166</v>
       </c>
-      <c r="Q5" s="185" t="s">
+      <c r="R5" s="225"/>
+      <c r="S5" s="225"/>
+      <c r="T5" s="225" t="s">
         <v>167</v>
       </c>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185" t="s">
-        <v>168</v>
-      </c>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185" t="s">
+      <c r="U5" s="225"/>
+      <c r="V5" s="225"/>
+      <c r="W5" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="185"/>
-      <c r="Z5" s="193"/>
+      <c r="X5" s="225"/>
+      <c r="Y5" s="225"/>
+      <c r="Z5" s="233"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="15" thickBot="1">
-      <c r="C6" s="184"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="192"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="186"/>
-      <c r="V6" s="186"/>
-      <c r="W6" s="186"/>
-      <c r="X6" s="186"/>
-      <c r="Y6" s="186"/>
-      <c r="Z6" s="194"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="230"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="232"/>
+      <c r="P6" s="226"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="226"/>
+      <c r="S6" s="226"/>
+      <c r="T6" s="226"/>
+      <c r="U6" s="226"/>
+      <c r="V6" s="226"/>
+      <c r="W6" s="226"/>
+      <c r="X6" s="226"/>
+      <c r="Y6" s="226"/>
+      <c r="Z6" s="234"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10152,43 +10084,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="195" t="s">
+      <c r="D7" s="219" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="196"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="195" t="s">
+      <c r="E7" s="220"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="219" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="220"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="205" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198" t="s">
+      <c r="K7" s="205"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="219" t="s">
         <v>170</v>
       </c>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="195" t="s">
+      <c r="N7" s="220"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="65" t="s">
+      <c r="Q7" s="219" t="s">
         <v>172</v>
       </c>
-      <c r="Q7" s="195" t="s">
+      <c r="R7" s="220"/>
+      <c r="S7" s="221"/>
+      <c r="T7" s="220" t="s">
         <v>173</v>
       </c>
-      <c r="R7" s="196"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="196" t="s">
-        <v>174</v>
-      </c>
-      <c r="U7" s="196"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="206"/>
-      <c r="X7" s="207"/>
-      <c r="Y7" s="207"/>
-      <c r="Z7" s="208"/>
+      <c r="U7" s="220"/>
+      <c r="V7" s="221"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="214"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10203,39 +10135,39 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="200"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="199" t="s">
+      <c r="E8" s="199"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="199"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="209"/>
-      <c r="L8" s="209"/>
-      <c r="M8" s="202" t="s">
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
       <c r="P8" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q8" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q8" s="206" t="s">
+        <v>174</v>
+      </c>
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="206" t="s">
         <v>175</v>
       </c>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202" t="s">
-        <v>176</v>
-      </c>
-      <c r="U8" s="202"/>
-      <c r="V8" s="202"/>
+      <c r="U8" s="206"/>
+      <c r="V8" s="206"/>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
       <c r="Y8" s="69"/>
@@ -10254,39 +10186,39 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="200"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="199" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="202" t="s">
+      <c r="E9" s="199"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="199"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="206"/>
+      <c r="L9" s="206"/>
+      <c r="M9" s="222" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" s="207"/>
+      <c r="O9" s="208"/>
+      <c r="P9" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q9" s="206" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="203" t="s">
-        <v>171</v>
-      </c>
-      <c r="N9" s="204"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q9" s="202" t="s">
+      <c r="R9" s="206"/>
+      <c r="S9" s="206"/>
+      <c r="T9" s="206" t="s">
         <v>178</v>
       </c>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
-      <c r="T9" s="202" t="s">
-        <v>179</v>
-      </c>
-      <c r="U9" s="202"/>
-      <c r="V9" s="202"/>
+      <c r="U9" s="206"/>
+      <c r="V9" s="206"/>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
@@ -10305,52 +10237,52 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="214" t="s">
+      <c r="D10" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="214" t="s">
+      <c r="E10" s="216"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="194" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="216"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="205" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="218" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="198" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="217" t="s">
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="N10" s="217"/>
-      <c r="O10" s="217"/>
-      <c r="P10" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q10" s="202" t="s">
+      <c r="R10" s="206"/>
+      <c r="S10" s="206"/>
+      <c r="T10" s="206" t="s">
         <v>182</v>
       </c>
-      <c r="R10" s="202"/>
-      <c r="S10" s="202"/>
-      <c r="T10" s="202" t="s">
-        <v>183</v>
-      </c>
-      <c r="U10" s="202"/>
-      <c r="V10" s="202"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="212"/>
+      <c r="U10" s="206"/>
+      <c r="V10" s="206"/>
+      <c r="W10" s="202"/>
+      <c r="X10" s="203"/>
+      <c r="Y10" s="203"/>
+      <c r="Z10" s="215"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD10" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE10" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
@@ -10383,13 +10315,13 @@
       <c r="Z11" s="87"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AD11" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE11" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="AE11" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
@@ -10399,52 +10331,52 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="200"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="H12" s="200"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="213" t="s">
+      <c r="E12" s="199"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="199"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="213"/>
-      <c r="O12" s="213"/>
+      <c r="N12" s="209"/>
+      <c r="O12" s="209"/>
       <c r="P12" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q12" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" s="206" t="s">
+        <v>183</v>
+      </c>
+      <c r="R12" s="206"/>
+      <c r="S12" s="206"/>
+      <c r="T12" s="206" t="s">
         <v>184</v>
       </c>
-      <c r="R12" s="202"/>
-      <c r="S12" s="202"/>
-      <c r="T12" s="202" t="s">
-        <v>185</v>
-      </c>
-      <c r="U12" s="202"/>
-      <c r="V12" s="202"/>
-      <c r="W12" s="210"/>
-      <c r="X12" s="211"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="212"/>
+      <c r="U12" s="206"/>
+      <c r="V12" s="206"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="203"/>
+      <c r="Y12" s="203"/>
+      <c r="Z12" s="215"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD12" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE12" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="AE12" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
@@ -10477,13 +10409,13 @@
       <c r="Z13" s="87"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD13" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE13" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="AE13" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
@@ -10493,52 +10425,52 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="200"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="200"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="213" t="s">
+      <c r="E14" s="199"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="199"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="209" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="213"/>
-      <c r="O14" s="213"/>
+      <c r="N14" s="209"/>
+      <c r="O14" s="209"/>
       <c r="P14" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q14" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" s="206" t="s">
+        <v>185</v>
+      </c>
+      <c r="R14" s="206"/>
+      <c r="S14" s="206"/>
+      <c r="T14" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="R14" s="202"/>
-      <c r="S14" s="202"/>
-      <c r="T14" s="202" t="s">
-        <v>187</v>
-      </c>
-      <c r="U14" s="202"/>
-      <c r="V14" s="202"/>
+      <c r="U14" s="206"/>
+      <c r="V14" s="206"/>
       <c r="W14" s="68"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
       <c r="Z14" s="70"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD14" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE14" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="AE14" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
@@ -10571,13 +10503,13 @@
       <c r="Z15" s="87"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD15" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE15" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="AE15" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="AF15" s="21"/>
       <c r="AG15" s="21"/>
@@ -10587,52 +10519,52 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="199" t="s">
+      <c r="D16" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="204"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="200"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="213" t="s">
+      <c r="E16" s="207"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="199"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="209" t="s">
+        <v>187</v>
+      </c>
+      <c r="N16" s="209"/>
+      <c r="O16" s="209"/>
+      <c r="P16" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" s="206" t="s">
         <v>188</v>
       </c>
-      <c r="N16" s="213"/>
-      <c r="O16" s="213"/>
-      <c r="P16" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q16" s="202" t="s">
+      <c r="R16" s="206"/>
+      <c r="S16" s="206"/>
+      <c r="T16" s="206" t="s">
         <v>189</v>
       </c>
-      <c r="R16" s="202"/>
-      <c r="S16" s="202"/>
-      <c r="T16" s="202" t="s">
-        <v>190</v>
-      </c>
-      <c r="U16" s="202"/>
-      <c r="V16" s="202"/>
+      <c r="U16" s="206"/>
+      <c r="V16" s="206"/>
       <c r="W16" s="68"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
       <c r="Z16" s="70"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AD16" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE16" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="AE16" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
@@ -10665,13 +10597,13 @@
       <c r="Z17" s="87"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AD17" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE17" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="AE17" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
@@ -10681,52 +10613,52 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="199" t="s">
+      <c r="D18" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="213" t="s">
+      <c r="E18" s="199"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="199"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="209" t="s">
+        <v>190</v>
+      </c>
+      <c r="N18" s="209"/>
+      <c r="O18" s="209"/>
+      <c r="P18" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q18" s="206" t="s">
         <v>191</v>
       </c>
-      <c r="N18" s="213"/>
-      <c r="O18" s="213"/>
-      <c r="P18" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q18" s="202" t="s">
+      <c r="R18" s="206"/>
+      <c r="S18" s="206"/>
+      <c r="T18" s="206" t="s">
         <v>192</v>
       </c>
-      <c r="R18" s="202"/>
-      <c r="S18" s="202"/>
-      <c r="T18" s="202" t="s">
-        <v>193</v>
-      </c>
-      <c r="U18" s="202"/>
-      <c r="V18" s="202"/>
+      <c r="U18" s="206"/>
+      <c r="V18" s="206"/>
       <c r="W18" s="68"/>
       <c r="X18" s="69"/>
       <c r="Y18" s="69"/>
       <c r="Z18" s="70"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD18" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE18" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="AE18" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
@@ -10759,13 +10691,13 @@
       <c r="Z19" s="87"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD19" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE19" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="AE19" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
@@ -10775,52 +10707,52 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="199" t="s">
+      <c r="D20" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="204"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="209"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="213" t="s">
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="199"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="209" t="s">
+        <v>193</v>
+      </c>
+      <c r="N20" s="209"/>
+      <c r="O20" s="209"/>
+      <c r="P20" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" s="206" t="s">
         <v>194</v>
       </c>
-      <c r="N20" s="213"/>
-      <c r="O20" s="213"/>
-      <c r="P20" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q20" s="202" t="s">
-        <v>195</v>
-      </c>
-      <c r="R20" s="202"/>
-      <c r="S20" s="202"/>
-      <c r="T20" s="202" t="s">
-        <v>193</v>
-      </c>
-      <c r="U20" s="202"/>
-      <c r="V20" s="202"/>
+      <c r="R20" s="206"/>
+      <c r="S20" s="206"/>
+      <c r="T20" s="206" t="s">
+        <v>192</v>
+      </c>
+      <c r="U20" s="206"/>
+      <c r="V20" s="206"/>
       <c r="W20" s="68"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="69"/>
       <c r="Z20" s="70"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD20" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE20" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="AE20" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
@@ -10853,13 +10785,13 @@
       <c r="Z21" s="87"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD21" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE21" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="AE21" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
@@ -10869,52 +10801,52 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="199" t="s">
+      <c r="D22" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="204"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="H22" s="200"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="213" t="s">
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="199"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="209" t="s">
+        <v>195</v>
+      </c>
+      <c r="N22" s="209"/>
+      <c r="O22" s="209"/>
+      <c r="P22" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" s="206" t="s">
         <v>196</v>
       </c>
-      <c r="N22" s="213"/>
-      <c r="O22" s="213"/>
-      <c r="P22" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q22" s="202" t="s">
-        <v>197</v>
-      </c>
-      <c r="R22" s="202"/>
-      <c r="S22" s="202"/>
-      <c r="T22" s="202" t="s">
-        <v>193</v>
-      </c>
-      <c r="U22" s="202"/>
-      <c r="V22" s="202"/>
+      <c r="R22" s="206"/>
+      <c r="S22" s="206"/>
+      <c r="T22" s="206" t="s">
+        <v>192</v>
+      </c>
+      <c r="U22" s="206"/>
+      <c r="V22" s="206"/>
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
       <c r="Y22" s="69"/>
       <c r="Z22" s="70"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AD22" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE22" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="AE22" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="AF22" s="21"/>
       <c r="AG22" s="21"/>
@@ -10947,13 +10879,13 @@
       <c r="Z23" s="87"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD23" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE23" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="AE23" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="AF23" s="21"/>
       <c r="AG23" s="21"/>
@@ -10963,52 +10895,52 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="199" t="s">
+      <c r="D24" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="204"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" s="200"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="218" t="s">
-        <v>170</v>
-      </c>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="213" t="s">
+      <c r="E24" s="207"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="199"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="211" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="211"/>
+      <c r="L24" s="211"/>
+      <c r="M24" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="213"/>
-      <c r="O24" s="213"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="209"/>
       <c r="P24" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q24" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" s="206" t="s">
+        <v>197</v>
+      </c>
+      <c r="R24" s="206"/>
+      <c r="S24" s="206"/>
+      <c r="T24" s="206" t="s">
         <v>198</v>
       </c>
-      <c r="R24" s="202"/>
-      <c r="S24" s="202"/>
-      <c r="T24" s="202" t="s">
-        <v>199</v>
-      </c>
-      <c r="U24" s="202"/>
-      <c r="V24" s="202"/>
+      <c r="U24" s="206"/>
+      <c r="V24" s="206"/>
       <c r="W24" s="68"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
       <c r="Z24" s="70"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD24" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE24" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="AE24" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="AF24" s="21"/>
       <c r="AG24" s="21"/>
@@ -11041,13 +10973,13 @@
       <c r="Z25" s="87"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD25" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE25" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="AE25" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="AF25" s="21"/>
       <c r="AG25" s="21"/>
@@ -11057,52 +10989,52 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="199" t="s">
+      <c r="D26" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="200"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="199" t="s">
+      <c r="E26" s="199"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="199"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="206" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="206"/>
+      <c r="L26" s="206"/>
+      <c r="M26" s="210" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="200"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="202" t="s">
+      <c r="N26" s="210"/>
+      <c r="O26" s="210"/>
+      <c r="P26" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="206" t="s">
         <v>200</v>
       </c>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="219" t="s">
-        <v>181</v>
-      </c>
-      <c r="N26" s="219"/>
-      <c r="O26" s="219"/>
-      <c r="P26" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="202" t="s">
+      <c r="R26" s="206"/>
+      <c r="S26" s="206"/>
+      <c r="T26" s="206" t="s">
         <v>201</v>
       </c>
-      <c r="R26" s="202"/>
-      <c r="S26" s="202"/>
-      <c r="T26" s="202" t="s">
-        <v>202</v>
-      </c>
-      <c r="U26" s="202"/>
-      <c r="V26" s="202"/>
+      <c r="U26" s="206"/>
+      <c r="V26" s="206"/>
       <c r="W26" s="68"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
       <c r="Z26" s="70"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD26" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AE26" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF26" s="21"/>
       <c r="AG26" s="21"/>
@@ -11135,13 +11067,13 @@
       <c r="Z27" s="87"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD27" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE27" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF27" s="21"/>
       <c r="AG27" s="21"/>
@@ -11151,52 +11083,52 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="199" t="s">
+      <c r="D28" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="204"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" s="204"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="213" t="s">
+      <c r="E28" s="207"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="207"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="206" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="206"/>
+      <c r="O28" s="206"/>
+      <c r="P28" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="206" t="s">
         <v>203</v>
       </c>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202" t="s">
-        <v>81</v>
-      </c>
-      <c r="N28" s="202"/>
-      <c r="O28" s="202"/>
-      <c r="P28" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q28" s="202" t="s">
+      <c r="R28" s="206"/>
+      <c r="S28" s="206"/>
+      <c r="T28" s="209" t="s">
         <v>204</v>
       </c>
-      <c r="R28" s="202"/>
-      <c r="S28" s="202"/>
-      <c r="T28" s="213" t="s">
-        <v>205</v>
-      </c>
-      <c r="U28" s="202"/>
-      <c r="V28" s="202"/>
+      <c r="U28" s="206"/>
+      <c r="V28" s="206"/>
       <c r="W28" s="68"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
       <c r="Z28" s="70"/>
       <c r="AB28" s="16"/>
       <c r="AC28" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD28" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE28" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF28" s="21"/>
       <c r="AG28" s="21"/>
@@ -11229,13 +11161,13 @@
       <c r="Z29" s="87"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD29" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE29" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF29" s="21"/>
       <c r="AG29" s="21"/>
@@ -11245,52 +11177,52 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="223" t="s">
+      <c r="D30" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="224"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="223" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="224"/>
-      <c r="I30" s="225"/>
-      <c r="J30" s="202" t="s">
+      <c r="E30" s="192"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="191" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="192"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="206" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="206"/>
+      <c r="L30" s="206"/>
+      <c r="M30" s="206" t="s">
+        <v>190</v>
+      </c>
+      <c r="N30" s="206"/>
+      <c r="O30" s="206"/>
+      <c r="P30" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q30" s="206" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202" t="s">
-        <v>191</v>
-      </c>
-      <c r="N30" s="202"/>
-      <c r="O30" s="202"/>
-      <c r="P30" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q30" s="202" t="s">
+      <c r="R30" s="206"/>
+      <c r="S30" s="206"/>
+      <c r="T30" s="206" t="s">
         <v>207</v>
       </c>
-      <c r="R30" s="202"/>
-      <c r="S30" s="202"/>
-      <c r="T30" s="202" t="s">
-        <v>208</v>
-      </c>
-      <c r="U30" s="202"/>
-      <c r="V30" s="202"/>
+      <c r="U30" s="206"/>
+      <c r="V30" s="206"/>
       <c r="W30" s="68"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
       <c r="Z30" s="70"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD30" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE30" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF30" s="21"/>
       <c r="AG30" s="21"/>
@@ -11323,13 +11255,13 @@
       <c r="Z31" s="87"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AD31" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AE31" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF31" s="21"/>
       <c r="AG31" s="21"/>
@@ -11339,39 +11271,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="214" t="s">
+      <c r="D32" s="194" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="195"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="194" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="214" t="s">
+      <c r="H32" s="195"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="205" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="205"/>
+      <c r="L32" s="205"/>
+      <c r="M32" s="202" t="s">
         <v>210</v>
       </c>
-      <c r="H32" s="220"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="198" t="s">
-        <v>170</v>
-      </c>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="210" t="s">
+      <c r="N32" s="203"/>
+      <c r="O32" s="204"/>
+      <c r="P32" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q32" s="194" t="s">
         <v>211</v>
       </c>
-      <c r="N32" s="211"/>
-      <c r="O32" s="222"/>
-      <c r="P32" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q32" s="214" t="s">
+      <c r="R32" s="195"/>
+      <c r="S32" s="196"/>
+      <c r="T32" s="202" t="s">
         <v>212</v>
       </c>
-      <c r="R32" s="220"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="210" t="s">
-        <v>213</v>
-      </c>
-      <c r="U32" s="211"/>
-      <c r="V32" s="222"/>
+      <c r="U32" s="203"/>
+      <c r="V32" s="204"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11390,39 +11322,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="199" t="s">
+      <c r="D33" s="198" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="199"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="198" t="s">
         <v>209</v>
       </c>
-      <c r="E33" s="200"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="199" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="200"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="210" t="s">
+      <c r="H33" s="199"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="202" t="s">
+        <v>213</v>
+      </c>
+      <c r="N33" s="203"/>
+      <c r="O33" s="204"/>
+      <c r="P33" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" s="194" t="s">
         <v>214</v>
       </c>
-      <c r="N33" s="211"/>
-      <c r="O33" s="222"/>
-      <c r="P33" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q33" s="214" t="s">
+      <c r="R33" s="195"/>
+      <c r="S33" s="196"/>
+      <c r="T33" s="202" t="s">
         <v>215</v>
       </c>
-      <c r="R33" s="220"/>
-      <c r="S33" s="221"/>
-      <c r="T33" s="210" t="s">
-        <v>216</v>
-      </c>
-      <c r="U33" s="211"/>
-      <c r="V33" s="222"/>
+      <c r="U33" s="203"/>
+      <c r="V33" s="204"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11441,43 +11373,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="199" t="s">
+      <c r="D34" s="198" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="199"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="198" t="s">
         <v>209</v>
       </c>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="199" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="K34" s="209"/>
-      <c r="L34" s="209"/>
-      <c r="M34" s="214" t="s">
+      <c r="H34" s="199"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="201"/>
+      <c r="L34" s="201"/>
+      <c r="M34" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="N34" s="195"/>
+      <c r="O34" s="196"/>
+      <c r="P34" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q34" s="194" t="s">
         <v>217</v>
       </c>
-      <c r="N34" s="220"/>
-      <c r="O34" s="221"/>
-      <c r="P34" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q34" s="214" t="s">
+      <c r="R34" s="195"/>
+      <c r="S34" s="196"/>
+      <c r="T34" s="202" t="s">
         <v>218</v>
       </c>
-      <c r="R34" s="220"/>
-      <c r="S34" s="221"/>
-      <c r="T34" s="210" t="s">
-        <v>219</v>
-      </c>
-      <c r="U34" s="211"/>
-      <c r="V34" s="222"/>
-      <c r="W34" s="226"/>
-      <c r="X34" s="227"/>
-      <c r="Y34" s="227"/>
-      <c r="Z34" s="228"/>
+      <c r="U34" s="203"/>
+      <c r="V34" s="204"/>
+      <c r="W34" s="188"/>
+      <c r="X34" s="189"/>
+      <c r="Y34" s="189"/>
+      <c r="Z34" s="190"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11492,43 +11424,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="223" t="s">
+      <c r="D35" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="224"/>
-      <c r="F35" s="225"/>
-      <c r="G35" s="223" t="s">
+      <c r="E35" s="192"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="191" t="s">
+        <v>219</v>
+      </c>
+      <c r="H35" s="192"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="H35" s="224"/>
-      <c r="I35" s="225"/>
-      <c r="J35" s="214" t="s">
+      <c r="K35" s="195"/>
+      <c r="L35" s="196"/>
+      <c r="M35" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="N35" s="195"/>
+      <c r="O35" s="196"/>
+      <c r="P35" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q35" s="194" t="s">
         <v>221</v>
       </c>
-      <c r="K35" s="220"/>
-      <c r="L35" s="221"/>
-      <c r="M35" s="214" t="s">
-        <v>217</v>
-      </c>
-      <c r="N35" s="220"/>
-      <c r="O35" s="221"/>
-      <c r="P35" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q35" s="214" t="s">
+      <c r="R35" s="195"/>
+      <c r="S35" s="196"/>
+      <c r="T35" s="197" t="s">
         <v>222</v>
       </c>
-      <c r="R35" s="220"/>
-      <c r="S35" s="221"/>
-      <c r="T35" s="229" t="s">
-        <v>223</v>
-      </c>
-      <c r="U35" s="220"/>
-      <c r="V35" s="221"/>
-      <c r="W35" s="226"/>
-      <c r="X35" s="227"/>
-      <c r="Y35" s="227"/>
-      <c r="Z35" s="228"/>
+      <c r="U35" s="195"/>
+      <c r="V35" s="196"/>
+      <c r="W35" s="188"/>
+      <c r="X35" s="189"/>
+      <c r="Y35" s="189"/>
+      <c r="Z35" s="190"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12333,29 +12265,29 @@
     </row>
     <row r="60" spans="3:34" ht="15" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="132"/>
-      <c r="K60" s="132"/>
-      <c r="L60" s="132"/>
-      <c r="M60" s="132"/>
-      <c r="N60" s="132"/>
-      <c r="O60" s="132"/>
-      <c r="P60" s="132"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
+      <c r="P60" s="156"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="132"/>
-      <c r="X60" s="132"/>
-      <c r="Y60" s="132"/>
-      <c r="Z60" s="133"/>
+      <c r="W60" s="156"/>
+      <c r="X60" s="156"/>
+      <c r="Y60" s="156"/>
+      <c r="Z60" s="157"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12409,6 +12341,115 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
     <mergeCell ref="J60:L60"/>
@@ -12433,115 +12474,6 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12579,31 +12511,31 @@
   <sheetData>
     <row r="1" spans="2:32" ht="15" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="230" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231"/>
-      <c r="X2" s="232"/>
+      <c r="B2" s="258" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="260"/>
       <c r="Z2" s="16"/>
       <c r="AA2" s="104"/>
       <c r="AB2" s="105"/>
@@ -12614,29 +12546,29 @@
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="154" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="C3" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="154" t="s">
+      <c r="H3" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="154"/>
-      <c r="J3" s="155"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="179"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="154" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="155"/>
+      <c r="L3" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12688,71 +12620,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="261" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233" t="s">
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="233"/>
-      <c r="H5" s="233"/>
-      <c r="I5" s="233" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="233"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233" t="s">
-        <v>225</v>
-      </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
-      <c r="O5" s="233" t="s">
+      <c r="J5" s="261"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" s="261"/>
+      <c r="N5" s="261"/>
+      <c r="O5" s="261" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="261"/>
+      <c r="Q5" s="261"/>
+      <c r="R5" s="261" t="s">
         <v>167</v>
       </c>
-      <c r="P5" s="233"/>
-      <c r="Q5" s="233"/>
-      <c r="R5" s="233" t="s">
-        <v>168</v>
-      </c>
-      <c r="S5" s="233"/>
-      <c r="T5" s="233"/>
-      <c r="U5" s="233" t="s">
+      <c r="S5" s="261"/>
+      <c r="T5" s="261"/>
+      <c r="U5" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="233"/>
-      <c r="W5" s="233"/>
-      <c r="X5" s="235"/>
+      <c r="V5" s="261"/>
+      <c r="W5" s="261"/>
+      <c r="X5" s="263"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="15" thickBot="1">
-      <c r="B6" s="143"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
-      <c r="Q6" s="234"/>
-      <c r="R6" s="234"/>
-      <c r="S6" s="234"/>
-      <c r="T6" s="234"/>
-      <c r="U6" s="234"/>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="236"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="262"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="262"/>
+      <c r="N6" s="262"/>
+      <c r="O6" s="262"/>
+      <c r="P6" s="262"/>
+      <c r="Q6" s="262"/>
+      <c r="R6" s="262"/>
+      <c r="S6" s="262"/>
+      <c r="T6" s="262"/>
+      <c r="U6" s="262"/>
+      <c r="V6" s="262"/>
+      <c r="W6" s="262"/>
+      <c r="X6" s="264"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12777,40 +12709,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="237" t="s">
+      <c r="C7" s="250" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="237" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="240" t="s">
+      <c r="D7" s="251"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="250" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="251"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="247" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="253"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="255" t="s">
         <v>226</v>
       </c>
-      <c r="J7" s="241"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243" t="s">
+      <c r="M7" s="256"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="247" t="s">
         <v>227</v>
       </c>
-      <c r="M7" s="244"/>
-      <c r="N7" s="245"/>
-      <c r="O7" s="240" t="s">
+      <c r="P7" s="253"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="235" t="s">
         <v>228</v>
       </c>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="242"/>
-      <c r="R7" s="246" t="s">
-        <v>229</v>
-      </c>
-      <c r="S7" s="227"/>
-      <c r="T7" s="247"/>
-      <c r="U7" s="248"/>
-      <c r="V7" s="249"/>
-      <c r="W7" s="249"/>
-      <c r="X7" s="250"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="236"/>
+      <c r="U7" s="237"/>
+      <c r="V7" s="238"/>
+      <c r="W7" s="238"/>
+      <c r="X7" s="239"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12825,49 +12757,49 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="255" t="s">
+      <c r="C8" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="255" t="s">
+      <c r="D8" s="245"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="244" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="245"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="235" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="235" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="256"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="246" t="s">
+      <c r="M8" s="242"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="247" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="253"/>
-      <c r="K8" s="254"/>
-      <c r="L8" s="246" t="s">
-        <v>181</v>
-      </c>
-      <c r="M8" s="253"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="240" t="s">
+      <c r="P8" s="248"/>
+      <c r="Q8" s="249"/>
+      <c r="R8" s="235" t="s">
         <v>231</v>
       </c>
-      <c r="P8" s="258"/>
-      <c r="Q8" s="259"/>
-      <c r="R8" s="246" t="s">
-        <v>232</v>
-      </c>
-      <c r="S8" s="253"/>
-      <c r="T8" s="254"/>
+      <c r="S8" s="242"/>
+      <c r="T8" s="243"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
       <c r="X8" s="81"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB8" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC8" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
@@ -12899,13 +12831,13 @@
       <c r="X9" s="93"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB9" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AB9" s="21" t="s">
-        <v>279</v>
-      </c>
       <c r="AC9" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
@@ -12915,34 +12847,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="226" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="251"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="226" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="251"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="246" t="s">
+      <c r="C10" s="188" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="240"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="188" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="240"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="235" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="242"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="235" t="s">
+        <v>210</v>
+      </c>
+      <c r="M10" s="242"/>
+      <c r="N10" s="243"/>
+      <c r="O10" s="235" t="s">
         <v>233</v>
       </c>
-      <c r="J10" s="253"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="246" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" s="253"/>
-      <c r="N10" s="254"/>
-      <c r="O10" s="246" t="s">
-        <v>234</v>
-      </c>
-      <c r="P10" s="253"/>
-      <c r="Q10" s="254"/>
-      <c r="R10" s="246"/>
-      <c r="S10" s="253"/>
-      <c r="T10" s="254"/>
+      <c r="P10" s="242"/>
+      <c r="Q10" s="243"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="242"/>
+      <c r="T10" s="243"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13443,6 +13375,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13459,22 +13407,6 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xylbk\Documents\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\LSY_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{41A80504-6C82-479D-8E67-BEEB5CA31582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4996B92E-C7F5-4668-B89B-AB9B01EABFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Eーエラーメッセージ確認サーバ!$A$1:$AO$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="312">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1015,9 +1014,6 @@
     <t>UT-USER02-B-011</t>
   </si>
   <si>
-    <t>UT-USER02-B-013</t>
-  </si>
-  <si>
     <t>UT-USER02-B-014</t>
   </si>
   <si>
@@ -2206,6 +2202,10 @@
     <rPh sb="2" eb="3">
       <t>リ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-B-013</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3403,66 +3403,87 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3472,25 +3493,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3544,35 +3574,50 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3583,15 +3628,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3601,48 +3637,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3661,6 +3661,135 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3670,137 +3799,56 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3838,59 +3886,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4321,26 +4321,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.15" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4353,37 +4353,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="110"/>
+      <c r="C3" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="115"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="110"/>
+      <c r="G3" s="115"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="109"/>
+      <c r="I3" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="114"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="112">
+      <c r="L3" s="117">
         <v>45069</v>
       </c>
-      <c r="M3" s="113"/>
+      <c r="M3" s="118"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4456,67 +4456,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="114" t="s">
+      <c r="P7" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="114" t="s">
+      <c r="Q7" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="119" t="s">
+      <c r="R7" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="115">
+      <c r="S7" s="103">
         <v>45069</v>
       </c>
-      <c r="T7" s="114" t="s">
-        <v>159</v>
-      </c>
-      <c r="U7" s="114"/>
+      <c r="T7" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="U7" s="102"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
     </row>
     <row r="10" spans="2:28" ht="25.5">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
     </row>
     <row r="12" spans="2:28" ht="16.5">
       <c r="B12" s="32"/>
@@ -4524,42 +4524,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="117"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="103"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="106"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="105"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4573,18 +4573,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="103"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="105"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="105"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4599,18 +4599,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="103"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="105"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="105"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4623,12 +4623,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="116"/>
+      <c r="G25" s="104"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="103"/>
+      <c r="G26" s="105"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4775,6 +4775,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4785,21 +4800,6 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4820,8 +4820,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K5" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K9" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4844,59 +4844,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="15" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="145"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="104" t="s">
+      <c r="V2" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
     </row>
     <row r="3" spans="3:28" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
+      <c r="E3" s="146" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="146"/>
+      <c r="G3" s="147"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="136" t="s">
-        <v>311</v>
-      </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="137"/>
+      <c r="M3" s="146" t="s">
+        <v>310</v>
+      </c>
+      <c r="N3" s="146"/>
+      <c r="O3" s="147"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4906,10 +4906,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4924,57 +4924,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="141" t="s">
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="141" t="s">
+      <c r="K5" s="152"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="142"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="141" t="s">
+      <c r="N5" s="152"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="147"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="157"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="15" thickBot="1">
-      <c r="C6" s="138"/>
-      <c r="D6" s="140" t="s">
+      <c r="C6" s="148"/>
+      <c r="D6" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140" t="s">
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="148"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="158"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5019,12 +5019,12 @@
       </c>
       <c r="N7" s="128"/>
       <c r="O7" s="128"/>
-      <c r="P7" s="123" t="s">
+      <c r="P7" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="124"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="131"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5038,39 +5038,39 @@
       <c r="Y7" s="99"/>
       <c r="Z7" s="99"/>
       <c r="AA7" s="48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="3:28" ht="28.5">
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120" t="s">
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="121" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="120">
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="123">
         <v>8</v>
       </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120" t="s">
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="122"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="129"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5084,42 +5084,42 @@
       <c r="Y8" s="100"/>
       <c r="Z8" s="100"/>
       <c r="AA8" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="3:28" ht="28.5">
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="129" t="s">
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="121" t="s">
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="129">
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="120">
         <v>5</v>
       </c>
-      <c r="N9" s="130"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="129" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="152"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="132"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>107</v>
@@ -5131,46 +5131,46 @@
         <v>45069</v>
       </c>
       <c r="Z9" s="100" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="3:28" ht="28.5">
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="149" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" s="150"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="125" t="s">
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="139" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="140"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="129">
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="120">
         <v>50</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="152"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="132"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>107</v>
@@ -5182,7 +5182,7 @@
         <v>45069</v>
       </c>
       <c r="Z10" s="100" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA10" s="19"/>
     </row>
@@ -5190,33 +5190,33 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120" t="s">
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121" t="s">
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="120">
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="123">
         <v>50</v>
       </c>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="122"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="129"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>107</v>
@@ -5227,42 +5227,42 @@
       <c r="Y11" s="101"/>
       <c r="Z11" s="100"/>
       <c r="AA11" s="96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="3:28" ht="28.5">
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="129" t="s">
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="121" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="129">
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="120">
         <v>10</v>
       </c>
-      <c r="N12" s="130"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="129" t="s">
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="152"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="132"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>107</v>
@@ -5274,44 +5274,44 @@
         <v>45069</v>
       </c>
       <c r="Z12" s="100" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="3:28" ht="28.5">
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="153" t="s">
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="154"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="125" t="s">
+      <c r="H13" s="135"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="129">
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="120">
         <v>50</v>
       </c>
-      <c r="N13" s="130"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="152"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="132"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W13" s="21" t="s">
         <v>107</v>
@@ -5323,7 +5323,7 @@
         <v>45069</v>
       </c>
       <c r="Z13" s="100" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA13" s="19"/>
     </row>
@@ -5331,33 +5331,33 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="158" t="s">
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="121" t="s">
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="120">
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="123">
         <v>50</v>
       </c>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="122"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="129"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W14" s="21" t="s">
         <v>107</v>
@@ -5373,35 +5373,35 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="153" t="s">
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="154"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="125" t="s">
+      <c r="H15" s="135"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="126"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="129">
+      <c r="K15" s="125"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="120">
         <v>16</v>
       </c>
-      <c r="N15" s="130"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="129" t="s">
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="152"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="132"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W15" s="21" t="s">
         <v>107</v>
@@ -5413,44 +5413,44 @@
         <v>45069</v>
       </c>
       <c r="Z15" s="100" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA15" s="19"/>
       <c r="AB15" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="3:28" ht="28.5">
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="153" t="s">
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="154"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="125" t="s">
+      <c r="H16" s="135"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="129">
+      <c r="K16" s="125"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="120">
         <v>50</v>
       </c>
-      <c r="N16" s="130"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="152"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="132"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W16" s="21" t="s">
         <v>107</v>
@@ -5458,40 +5458,44 @@
       <c r="X16" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="100"/>
+      <c r="Y16" s="101">
+        <v>45069</v>
+      </c>
+      <c r="Z16" s="100" t="s">
+        <v>307</v>
+      </c>
       <c r="AA16" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="3:28" ht="28.5">
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="158" t="s">
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="121" t="s">
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="120">
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="123">
         <v>50</v>
       </c>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="122"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="129"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>139</v>
@@ -5510,35 +5514,35 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="129" t="s">
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="121" t="s">
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="129">
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="120">
         <v>6</v>
       </c>
-      <c r="N18" s="130"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="129" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="152"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="120" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="132"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>107</v>
@@ -5546,44 +5550,48 @@
       <c r="X18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="100"/>
+      <c r="Y18" s="101">
+        <v>45069</v>
+      </c>
+      <c r="Z18" s="100" t="s">
+        <v>307</v>
+      </c>
       <c r="AA18" s="19"/>
       <c r="AB18" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="3:28" ht="28.5">
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="129" t="s">
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="125" t="s">
+      <c r="H19" s="121"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="129">
+      <c r="K19" s="125"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="120">
         <v>50</v>
       </c>
-      <c r="N19" s="130"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="152"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="132"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="W19" s="21" t="s">
         <v>107</v>
@@ -5591,43 +5599,47 @@
       <c r="X19" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="100"/>
+      <c r="Y19" s="101">
+        <v>45069</v>
+      </c>
+      <c r="Z19" s="100" t="s">
+        <v>307</v>
+      </c>
       <c r="AA19" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="3:28" ht="28.5">
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="130"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="129" t="s">
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="125" t="s">
+      <c r="H20" s="121"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="126"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="129">
+      <c r="K20" s="125"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="120">
         <v>50</v>
       </c>
-      <c r="N20" s="130"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="152"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="132"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W20" s="21" t="s">
         <v>107</v>
@@ -5635,43 +5647,47 @@
       <c r="X20" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="100"/>
+      <c r="Y20" s="101">
+        <v>45069</v>
+      </c>
+      <c r="Z20" s="100" t="s">
+        <v>307</v>
+      </c>
       <c r="AA20" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="3:28" ht="28.5">
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="120" t="s">
+      <c r="D21" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120" t="s">
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121" t="s">
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="120">
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="123">
         <v>50</v>
       </c>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="122"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="129"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W21" s="21" t="s">
         <v>107</v>
@@ -5687,35 +5703,35 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120" t="s">
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="121" t="s">
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="120">
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="123">
         <v>8</v>
       </c>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120" t="s">
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="122"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="129"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W22" s="21" t="s">
         <v>107</v>
@@ -5727,40 +5743,40 @@
       <c r="Z22" s="100"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="3:28" ht="28.5">
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120" t="s">
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="121" t="s">
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="120">
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="123">
         <v>4</v>
       </c>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="122"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="129"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W23" s="21" t="s">
         <v>107</v>
@@ -5771,40 +5787,40 @@
       <c r="Y23" s="101"/>
       <c r="Z23" s="100"/>
       <c r="AA23" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="3:28" ht="28.5">
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120" t="s">
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="121" t="s">
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="120">
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="123">
         <v>2</v>
       </c>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="122"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="129"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W24" s="21" t="s">
         <v>107</v>
@@ -5820,33 +5836,33 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120" t="s">
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="121" t="s">
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="120">
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="123">
         <v>2</v>
       </c>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="122"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="129"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W25" s="21" t="s">
         <v>107</v>
@@ -5862,33 +5878,33 @@
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120" t="s">
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="121" t="s">
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="120">
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="123">
         <v>50</v>
       </c>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="122"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="129"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W26" s="21" t="s">
         <v>107</v>
@@ -5904,35 +5920,35 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120" t="s">
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="121" t="s">
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="123">
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="130">
         <v>10</v>
       </c>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="120" t="s">
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="122"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="129"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W27" s="21" t="s">
         <v>107</v>
@@ -5944,42 +5960,42 @@
       <c r="Z27" s="100"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="3:28" ht="28.5">
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120" t="s">
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="121" t="s">
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
       <c r="M28" s="128">
         <v>4</v>
       </c>
       <c r="N28" s="128"/>
       <c r="O28" s="128"/>
-      <c r="P28" s="123" t="s">
+      <c r="P28" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="124"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="131"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W28" s="21" t="s">
         <v>107</v>
@@ -5991,40 +6007,40 @@
       <c r="Z28" s="100"/>
       <c r="AA28" s="19"/>
       <c r="AB28" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="3:28" ht="28.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120" t="s">
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="121" t="s">
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
       <c r="M29" s="128" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="128"/>
       <c r="O29" s="128"/>
-      <c r="P29" s="123" t="s">
+      <c r="P29" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="124"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="131"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W29" s="21" t="s">
         <v>107</v>
@@ -6040,35 +6056,35 @@
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120" t="s">
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="121" t="s">
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
       <c r="M30" s="128">
         <v>6</v>
       </c>
       <c r="N30" s="128"/>
       <c r="O30" s="128"/>
-      <c r="P30" s="123" t="s">
+      <c r="P30" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="124"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="131"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W30" s="21" t="s">
         <v>107</v>
@@ -6080,40 +6096,40 @@
       <c r="Z30" s="100"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="3:28" ht="28.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120" t="s">
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="121" t="s">
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
       <c r="M31" s="128" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="128"/>
       <c r="O31" s="128"/>
-      <c r="P31" s="123" t="s">
+      <c r="P31" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="124"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="131"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W31" s="21" t="s">
         <v>107</v>
@@ -6129,33 +6145,33 @@
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="120" t="s">
+      <c r="D32" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120" t="s">
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="121" t="s">
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="120">
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="123">
         <v>50</v>
       </c>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="122"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="129"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W32" s="21" t="s">
         <v>107</v>
@@ -6171,35 +6187,35 @@
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="129" t="s">
+      <c r="D33" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="129" t="s">
+      <c r="E33" s="121"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="121" t="s">
+      <c r="H33" s="121"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="129">
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="120">
         <v>4</v>
       </c>
-      <c r="N33" s="130"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="123" t="s">
+      <c r="N33" s="121"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="124"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="130"/>
+      <c r="S33" s="131"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W33" s="21" t="s">
         <v>107</v>
@@ -6211,40 +6227,40 @@
       <c r="Z33" s="100"/>
       <c r="AA33" s="19"/>
       <c r="AB33" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="3:28" ht="28.5">
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120" t="s">
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="125" t="s">
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="126"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="120">
+      <c r="K34" s="125"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="123">
         <v>80</v>
       </c>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="124"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="130"/>
+      <c r="Q34" s="130"/>
+      <c r="R34" s="130"/>
+      <c r="S34" s="131"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W34" s="21" t="s">
         <v>107</v>
@@ -6255,40 +6271,40 @@
       <c r="Y34" s="101"/>
       <c r="Z34" s="100"/>
       <c r="AA34" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="3:28" ht="28.5">
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120" t="s">
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="121" t="s">
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="120">
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="123">
         <v>50</v>
       </c>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="122"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="129"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W35" s="21" t="s">
         <v>107</v>
@@ -6304,35 +6320,35 @@
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120" t="s">
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="121" t="s">
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="120">
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="123">
         <v>4</v>
       </c>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="123" t="s">
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="124"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="131"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W36" s="21" t="s">
         <v>107</v>
@@ -6344,40 +6360,40 @@
       <c r="Z36" s="100"/>
       <c r="AA36" s="19"/>
       <c r="AB36" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="3:28" ht="28.5">
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="120" t="s">
+      <c r="D37" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120" t="s">
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="125" t="s">
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="120">
+      <c r="K37" s="125"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="123">
         <v>100</v>
       </c>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="124"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="130"/>
+      <c r="Q37" s="130"/>
+      <c r="R37" s="130"/>
+      <c r="S37" s="131"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W37" s="21" t="s">
         <v>107</v>
@@ -6388,40 +6404,40 @@
       <c r="Y37" s="101"/>
       <c r="Z37" s="100"/>
       <c r="AA37" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="3:28" ht="28.5">
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="120" t="s">
+      <c r="D38" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120" t="s">
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="121" t="s">
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="120">
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="123">
         <v>50</v>
       </c>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="122"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="129"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W38" s="21" t="s">
         <v>107</v>
@@ -6437,35 +6453,35 @@
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="129" t="s">
+      <c r="D39" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="129" t="s">
+      <c r="E39" s="121"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="130"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="125" t="s">
+      <c r="H39" s="121"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="126"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="129" t="s">
+      <c r="K39" s="125"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="130"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="129" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="130"/>
-      <c r="S39" s="152"/>
+      <c r="N39" s="121"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q39" s="121"/>
+      <c r="R39" s="121"/>
+      <c r="S39" s="132"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W39" s="21" t="s">
         <v>107</v>
@@ -6477,42 +6493,42 @@
       <c r="Z39" s="100"/>
       <c r="AA39" s="19"/>
       <c r="AB39" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="3:28" ht="28.5">
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="129" t="s">
+      <c r="D40" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="130"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="129" t="s">
+      <c r="E40" s="121"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="130"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="125" t="s">
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="126"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="129" t="s">
+      <c r="K40" s="125"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="130"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="129" t="s">
+      <c r="N40" s="121"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="130"/>
-      <c r="S40" s="152"/>
+      <c r="Q40" s="121"/>
+      <c r="R40" s="121"/>
+      <c r="S40" s="132"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W40" s="21" t="s">
         <v>107</v>
@@ -6524,27 +6540,27 @@
       <c r="Z40" s="100"/>
       <c r="AA40" s="19"/>
       <c r="AB40" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="131"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="130"/>
-      <c r="S41" s="152"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="121"/>
+      <c r="O41" s="122"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="121"/>
+      <c r="R41" s="121"/>
+      <c r="S41" s="132"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6555,22 +6571,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="129"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="129"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="129"/>
-      <c r="Q42" s="130"/>
-      <c r="R42" s="130"/>
-      <c r="S42" s="152"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="121"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="132"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6581,22 +6597,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="131"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="131"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="130"/>
-      <c r="S43" s="152"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="121"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="132"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6607,22 +6623,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="131"/>
-      <c r="J44" s="129"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="131"/>
-      <c r="M44" s="129"/>
-      <c r="N44" s="130"/>
-      <c r="O44" s="131"/>
-      <c r="P44" s="129"/>
-      <c r="Q44" s="130"/>
-      <c r="R44" s="130"/>
-      <c r="S44" s="152"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="121"/>
+      <c r="S44" s="132"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6633,22 +6649,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="130"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="130"/>
-      <c r="O45" s="131"/>
-      <c r="P45" s="129"/>
-      <c r="Q45" s="130"/>
-      <c r="R45" s="130"/>
-      <c r="S45" s="152"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="121"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="121"/>
+      <c r="S45" s="132"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6659,22 +6675,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="131"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="131"/>
-      <c r="M46" s="129"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="131"/>
-      <c r="P46" s="129"/>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="130"/>
-      <c r="S46" s="152"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="121"/>
+      <c r="R46" s="121"/>
+      <c r="S46" s="132"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6685,22 +6701,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="129"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="131"/>
-      <c r="P47" s="129"/>
-      <c r="Q47" s="130"/>
-      <c r="R47" s="130"/>
-      <c r="S47" s="152"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="122"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="122"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="121"/>
+      <c r="S47" s="132"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6711,22 +6727,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="129"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="131"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="131"/>
-      <c r="P48" s="129"/>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="130"/>
-      <c r="S48" s="152"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="122"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="121"/>
+      <c r="R48" s="121"/>
+      <c r="S48" s="132"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6737,22 +6753,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="131"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="131"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="131"/>
-      <c r="P49" s="129"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="130"/>
-      <c r="S49" s="152"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="121"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="121"/>
+      <c r="R49" s="121"/>
+      <c r="S49" s="132"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6763,22 +6779,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="129"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="131"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="130"/>
-      <c r="O50" s="131"/>
-      <c r="P50" s="129"/>
-      <c r="Q50" s="130"/>
-      <c r="R50" s="130"/>
-      <c r="S50" s="152"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="121"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="121"/>
+      <c r="S50" s="132"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6789,22 +6805,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123"/>
-      <c r="L51" s="123"/>
-      <c r="M51" s="123"/>
-      <c r="N51" s="123"/>
-      <c r="O51" s="123"/>
-      <c r="P51" s="123"/>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="123"/>
-      <c r="S51" s="124"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="130"/>
+      <c r="N51" s="130"/>
+      <c r="O51" s="130"/>
+      <c r="P51" s="130"/>
+      <c r="Q51" s="130"/>
+      <c r="R51" s="130"/>
+      <c r="S51" s="131"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6815,22 +6831,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="123"/>
-      <c r="M52" s="123"/>
-      <c r="N52" s="123"/>
-      <c r="O52" s="123"/>
-      <c r="P52" s="123"/>
-      <c r="Q52" s="123"/>
-      <c r="R52" s="123"/>
-      <c r="S52" s="124"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="130"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="130"/>
+      <c r="P52" s="130"/>
+      <c r="Q52" s="130"/>
+      <c r="R52" s="130"/>
+      <c r="S52" s="131"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6841,22 +6857,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="123"/>
-      <c r="K53" s="123"/>
-      <c r="L53" s="123"/>
-      <c r="M53" s="123"/>
-      <c r="N53" s="123"/>
-      <c r="O53" s="123"/>
-      <c r="P53" s="123"/>
-      <c r="Q53" s="123"/>
-      <c r="R53" s="123"/>
-      <c r="S53" s="124"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="131"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -6866,22 +6882,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="123"/>
-      <c r="P54" s="123"/>
-      <c r="Q54" s="123"/>
-      <c r="R54" s="123"/>
-      <c r="S54" s="124"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="130"/>
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="130"/>
+      <c r="S54" s="131"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -6891,155 +6907,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="123"/>
-      <c r="L55" s="123"/>
-      <c r="M55" s="123"/>
-      <c r="N55" s="123"/>
-      <c r="O55" s="123"/>
-      <c r="P55" s="123"/>
-      <c r="Q55" s="123"/>
-      <c r="R55" s="123"/>
-      <c r="S55" s="124"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="130"/>
+      <c r="O55" s="130"/>
+      <c r="P55" s="130"/>
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130"/>
+      <c r="S55" s="131"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="123"/>
-      <c r="K56" s="123"/>
-      <c r="L56" s="123"/>
-      <c r="M56" s="123"/>
-      <c r="N56" s="123"/>
-      <c r="O56" s="123"/>
-      <c r="P56" s="123"/>
-      <c r="Q56" s="123"/>
-      <c r="R56" s="123"/>
-      <c r="S56" s="124"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
+      <c r="Q56" s="130"/>
+      <c r="R56" s="130"/>
+      <c r="S56" s="131"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="123"/>
-      <c r="K57" s="123"/>
-      <c r="L57" s="123"/>
-      <c r="M57" s="123"/>
-      <c r="N57" s="123"/>
-      <c r="O57" s="123"/>
-      <c r="P57" s="123"/>
-      <c r="Q57" s="123"/>
-      <c r="R57" s="123"/>
-      <c r="S57" s="124"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="130"/>
+      <c r="P57" s="130"/>
+      <c r="Q57" s="130"/>
+      <c r="R57" s="130"/>
+      <c r="S57" s="131"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="123"/>
-      <c r="G58" s="123"/>
-      <c r="H58" s="123"/>
-      <c r="I58" s="123"/>
-      <c r="J58" s="123"/>
-      <c r="K58" s="123"/>
-      <c r="L58" s="123"/>
-      <c r="M58" s="123"/>
-      <c r="N58" s="123"/>
-      <c r="O58" s="123"/>
-      <c r="P58" s="123"/>
-      <c r="Q58" s="123"/>
-      <c r="R58" s="123"/>
-      <c r="S58" s="124"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="130"/>
+      <c r="K58" s="130"/>
+      <c r="L58" s="130"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="130"/>
+      <c r="O58" s="130"/>
+      <c r="P58" s="130"/>
+      <c r="Q58" s="130"/>
+      <c r="R58" s="130"/>
+      <c r="S58" s="131"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
-      <c r="J59" s="123"/>
-      <c r="K59" s="123"/>
-      <c r="L59" s="123"/>
-      <c r="M59" s="123"/>
-      <c r="N59" s="123"/>
-      <c r="O59" s="123"/>
-      <c r="P59" s="123"/>
-      <c r="Q59" s="123"/>
-      <c r="R59" s="123"/>
-      <c r="S59" s="124"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
+      <c r="K59" s="130"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="130"/>
+      <c r="N59" s="130"/>
+      <c r="O59" s="130"/>
+      <c r="P59" s="130"/>
+      <c r="Q59" s="130"/>
+      <c r="R59" s="130"/>
+      <c r="S59" s="131"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="123"/>
-      <c r="G60" s="123"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="123"/>
-      <c r="J60" s="123"/>
-      <c r="K60" s="123"/>
-      <c r="L60" s="123"/>
-      <c r="M60" s="123"/>
-      <c r="N60" s="123"/>
-      <c r="O60" s="123"/>
-      <c r="P60" s="123"/>
-      <c r="Q60" s="123"/>
-      <c r="R60" s="123"/>
-      <c r="S60" s="124"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="130"/>
+      <c r="O60" s="130"/>
+      <c r="P60" s="130"/>
+      <c r="Q60" s="130"/>
+      <c r="R60" s="130"/>
+      <c r="S60" s="131"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="123"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="123"/>
-      <c r="J61" s="123"/>
-      <c r="K61" s="123"/>
-      <c r="L61" s="123"/>
-      <c r="M61" s="123"/>
-      <c r="N61" s="123"/>
-      <c r="O61" s="123"/>
-      <c r="P61" s="123"/>
-      <c r="Q61" s="123"/>
-      <c r="R61" s="123"/>
-      <c r="S61" s="124"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="130"/>
+      <c r="N61" s="130"/>
+      <c r="O61" s="130"/>
+      <c r="P61" s="130"/>
+      <c r="Q61" s="130"/>
+      <c r="R61" s="130"/>
+      <c r="S61" s="131"/>
     </row>
     <row r="62" spans="3:27" ht="15" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="156"/>
-      <c r="K62" s="156"/>
-      <c r="L62" s="156"/>
-      <c r="M62" s="156"/>
-      <c r="N62" s="156"/>
-      <c r="O62" s="156"/>
-      <c r="P62" s="156"/>
-      <c r="Q62" s="156"/>
-      <c r="R62" s="156"/>
-      <c r="S62" s="157"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="137"/>
+      <c r="M62" s="137"/>
+      <c r="N62" s="137"/>
+      <c r="O62" s="137"/>
+      <c r="P62" s="137"/>
+      <c r="Q62" s="137"/>
+      <c r="R62" s="137"/>
+      <c r="S62" s="138"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7056,6 +7072,274 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="D34:F34"/>
@@ -7080,274 +7364,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7382,71 +7398,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="15" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="145"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="178" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179"/>
+      <c r="E3" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="159"/>
+      <c r="G3" s="160"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="160"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="178" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="179"/>
+      <c r="M3" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="159"/>
+      <c r="O3" s="160"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="180">
+      <c r="Q3" s="161">
         <v>45069</v>
       </c>
-      <c r="R3" s="180"/>
-      <c r="S3" s="181"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="162"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7463,53 +7479,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="141" t="s">
+      <c r="E5" s="152"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="142"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="141" t="s">
+      <c r="H5" s="152"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="141" t="s">
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="147"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="157"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="15" thickBot="1">
-      <c r="C6" s="138"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="158"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7534,28 +7550,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="166" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="167"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="174" t="s">
+      <c r="H7" s="167"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="168"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7570,42 +7586,42 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="175" t="s">
+      <c r="D8" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="176"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="166" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="167"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="173"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="165"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="45"/>
       <c r="U8" s="16"/>
       <c r="V8" s="61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W8" s="61" t="s">
         <v>125</v>
       </c>
       <c r="X8" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="3:27" ht="150" customHeight="1">
@@ -7628,60 +7644,60 @@
       <c r="S9" s="57"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>127</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="3:27" ht="136.9" customHeight="1">
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="166" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="167"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169" t="s">
-        <v>237</v>
-      </c>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="171"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="181"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
       <c r="S10" s="45"/>
       <c r="U10" s="16"/>
       <c r="V10" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W10" s="61" t="s">
         <v>125</v>
       </c>
       <c r="X10" s="62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="3:27" ht="148.9" customHeight="1">
@@ -7704,42 +7720,42 @@
       <c r="S11" s="57"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>127</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="3:27" ht="15" thickBot="1">
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D12" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="162" t="s">
+      <c r="E12" s="167"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="169" t="s">
+      <c r="H12" s="167"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="173"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="165"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7768,10 +7784,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="161"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="176"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7794,10 +7810,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="164"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="167"/>
+      <c r="S14" s="168"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8380,22 +8396,22 @@
     </row>
     <row r="37" spans="3:27" ht="15" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="156"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="156"/>
-      <c r="R37" s="156"/>
-      <c r="S37" s="157"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="137"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="137"/>
+      <c r="R37" s="137"/>
+      <c r="S37" s="138"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8539,21 +8555,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8570,6 +8571,21 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8604,71 +8620,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="15" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="145"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="178" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179"/>
+      <c r="E3" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="159"/>
+      <c r="G3" s="160"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="160"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="178" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="179"/>
+      <c r="M3" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="159"/>
+      <c r="O3" s="160"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="180">
+      <c r="Q3" s="161">
         <v>45069</v>
       </c>
-      <c r="R3" s="180"/>
-      <c r="S3" s="181"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="162"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8686,53 +8702,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="141" t="s">
+      <c r="E5" s="152"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="142"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="141" t="s">
+      <c r="H5" s="152"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="141" t="s">
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="147"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="157"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="15" thickBot="1">
-      <c r="C6" s="138"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="158"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8757,28 +8773,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="166" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="167"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="162" t="s">
+      <c r="H7" s="167"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="164"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="168"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8793,31 +8809,31 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="175" t="s">
+      <c r="D8" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="176"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="166" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="168"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="172"/>
       <c r="J8" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="168"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="172"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="45"/>
       <c r="U8" s="16"/>
       <c r="V8" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W8" s="61" t="s">
         <v>125</v>
@@ -8828,7 +8844,7 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="3:28" ht="90" customHeight="1">
@@ -8851,7 +8867,7 @@
       <c r="S9" s="57"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>127</v>
@@ -8862,23 +8878,23 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="3:28" ht="90" customHeight="1">
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="168"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="172"/>
       <c r="J10" s="182" t="s">
         <v>121</v>
       </c>
@@ -8893,7 +8909,7 @@
       <c r="S10" s="45"/>
       <c r="U10" s="16"/>
       <c r="V10" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W10" s="61" t="s">
         <v>125</v>
@@ -8904,7 +8920,7 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="3:28" ht="90" customHeight="1">
@@ -8927,7 +8943,7 @@
       <c r="S11" s="57"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>127</v>
@@ -8938,7 +8954,7 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="3:28" ht="90" customHeight="1">
@@ -8950,11 +8966,11 @@
       </c>
       <c r="E12" s="186"/>
       <c r="F12" s="187"/>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="168"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="172"/>
       <c r="J12" s="182" t="s">
         <v>122</v>
       </c>
@@ -8969,7 +8985,7 @@
       <c r="S12" s="45"/>
       <c r="U12" s="16"/>
       <c r="V12" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W12" s="61" t="s">
         <v>125</v>
@@ -8980,7 +8996,7 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="3:28" ht="90" customHeight="1">
@@ -9003,7 +9019,7 @@
       <c r="S13" s="57"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W13" s="21" t="s">
         <v>127</v>
@@ -9014,31 +9030,31 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="3:28" ht="90" customHeight="1" thickBot="1">
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="162" t="s">
+      <c r="D14" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="162" t="s">
+      <c r="E14" s="167"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="163"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="162" t="s">
+      <c r="H14" s="167"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="168"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="172"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9067,10 +9083,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="161"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="176"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9093,10 +9109,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="164"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="168"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9679,22 +9695,22 @@
     </row>
     <row r="39" spans="3:27" ht="15" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="156"/>
-      <c r="O39" s="156"/>
-      <c r="P39" s="156"/>
-      <c r="Q39" s="156"/>
-      <c r="R39" s="156"/>
-      <c r="S39" s="157"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="137"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
+      <c r="S39" s="138"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9820,18 +9836,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9848,12 +9858,18 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9899,84 +9915,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="15" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="132" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="135"/>
+      <c r="C2" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="145"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
     </row>
     <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="178" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179"/>
+      <c r="D3" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="160"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="160"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="178" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
+      <c r="M3" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="180">
+      <c r="R3" s="161">
         <v>45069</v>
       </c>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -9991,75 +10007,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="225" t="s">
+      <c r="D5" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225" t="s">
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225" t="s">
+      <c r="K5" s="190"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
-      <c r="M5" s="227" t="s">
+      <c r="N5" s="193"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="190" t="s">
         <v>164</v>
       </c>
-      <c r="N5" s="228"/>
-      <c r="O5" s="229"/>
-      <c r="P5" s="225" t="s">
+      <c r="Q5" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="Q5" s="225" t="s">
+      <c r="R5" s="190"/>
+      <c r="S5" s="190"/>
+      <c r="T5" s="190" t="s">
         <v>166</v>
       </c>
-      <c r="R5" s="225"/>
-      <c r="S5" s="225"/>
-      <c r="T5" s="225" t="s">
-        <v>167</v>
-      </c>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="225" t="s">
+      <c r="U5" s="190"/>
+      <c r="V5" s="190"/>
+      <c r="W5" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="225"/>
-      <c r="Y5" s="225"/>
-      <c r="Z5" s="233"/>
+      <c r="X5" s="190"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="198"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="15" thickBot="1">
-      <c r="C6" s="224"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="230"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="232"/>
-      <c r="P6" s="226"/>
-      <c r="Q6" s="226"/>
-      <c r="R6" s="226"/>
-      <c r="S6" s="226"/>
-      <c r="T6" s="226"/>
-      <c r="U6" s="226"/>
-      <c r="V6" s="226"/>
-      <c r="W6" s="226"/>
-      <c r="X6" s="226"/>
-      <c r="Y6" s="226"/>
-      <c r="Z6" s="234"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
+      <c r="Z6" s="199"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10084,43 +10100,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="219" t="s">
+      <c r="D7" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="220"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="219" t="s">
+      <c r="E7" s="201"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="200" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="201"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="221" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="220"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="205" t="s">
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="205"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="219" t="s">
+      <c r="N7" s="201"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="N7" s="220"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="65" t="s">
+      <c r="Q7" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="Q7" s="219" t="s">
+      <c r="R7" s="201"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="201" t="s">
         <v>172</v>
       </c>
-      <c r="R7" s="220"/>
-      <c r="S7" s="221"/>
-      <c r="T7" s="220" t="s">
-        <v>173</v>
-      </c>
-      <c r="U7" s="220"/>
-      <c r="V7" s="221"/>
-      <c r="W7" s="212"/>
-      <c r="X7" s="213"/>
-      <c r="Y7" s="213"/>
-      <c r="Z7" s="214"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="202"/>
+      <c r="W7" s="210"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="212"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10135,36 +10151,36 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="198" t="s">
+      <c r="D8" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="199"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="198" t="s">
+      <c r="E8" s="204"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="203" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="204"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="199"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
       <c r="M8" s="206" t="s">
         <v>19</v>
       </c>
       <c r="N8" s="206"/>
       <c r="O8" s="206"/>
       <c r="P8" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="206" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R8" s="206"/>
       <c r="S8" s="206"/>
       <c r="T8" s="206" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U8" s="206"/>
       <c r="V8" s="206"/>
@@ -10186,36 +10202,36 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="198" t="s">
+      <c r="D9" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="199"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="198" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" s="199"/>
-      <c r="I9" s="200"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="203" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="204"/>
+      <c r="I9" s="205"/>
       <c r="J9" s="206" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K9" s="206"/>
       <c r="L9" s="206"/>
-      <c r="M9" s="222" t="s">
+      <c r="M9" s="207" t="s">
+        <v>169</v>
+      </c>
+      <c r="N9" s="208"/>
+      <c r="O9" s="209"/>
+      <c r="P9" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="N9" s="207"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="67" t="s">
-        <v>171</v>
-      </c>
       <c r="Q9" s="206" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R9" s="206"/>
       <c r="S9" s="206"/>
       <c r="T9" s="206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U9" s="206"/>
       <c r="V9" s="206"/>
@@ -10237,52 +10253,52 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="194" t="s">
+      <c r="D10" s="218" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="216"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="194" t="s">
+      <c r="E10" s="219"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="218" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="219"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="221" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="222" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="216"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="205" t="s">
-        <v>169</v>
-      </c>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="218" t="s">
+      <c r="N10" s="222"/>
+      <c r="O10" s="222"/>
+      <c r="P10" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="206" t="s">
         <v>180</v>
-      </c>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q10" s="206" t="s">
-        <v>181</v>
       </c>
       <c r="R10" s="206"/>
       <c r="S10" s="206"/>
       <c r="T10" s="206" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U10" s="206"/>
       <c r="V10" s="206"/>
-      <c r="W10" s="202"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="203"/>
-      <c r="Z10" s="215"/>
+      <c r="W10" s="214"/>
+      <c r="X10" s="215"/>
+      <c r="Y10" s="215"/>
+      <c r="Z10" s="216"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AD10" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE10" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
@@ -10315,13 +10331,13 @@
       <c r="Z11" s="87"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AD11" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE11" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE11" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
@@ -10331,52 +10347,52 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="198" t="s">
+      <c r="D12" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="199"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="209" t="s">
+      <c r="E12" s="204"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="204"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" s="213"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="209"/>
-      <c r="O12" s="209"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="217"/>
       <c r="P12" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="206" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R12" s="206"/>
       <c r="S12" s="206"/>
       <c r="T12" s="206" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U12" s="206"/>
       <c r="V12" s="206"/>
-      <c r="W12" s="202"/>
-      <c r="X12" s="203"/>
-      <c r="Y12" s="203"/>
-      <c r="Z12" s="215"/>
+      <c r="W12" s="214"/>
+      <c r="X12" s="215"/>
+      <c r="Y12" s="215"/>
+      <c r="Z12" s="216"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD12" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE12" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="AE12" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
@@ -10409,13 +10425,13 @@
       <c r="Z13" s="87"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD13" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE13" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE13" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
@@ -10425,36 +10441,36 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="198" t="s">
+      <c r="D14" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="199"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="199"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="209" t="s">
+      <c r="E14" s="204"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="204"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="213"/>
+      <c r="L14" s="213"/>
+      <c r="M14" s="217" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="209"/>
-      <c r="O14" s="209"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
       <c r="P14" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="206" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R14" s="206"/>
       <c r="S14" s="206"/>
       <c r="T14" s="206" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" s="206"/>
       <c r="V14" s="206"/>
@@ -10464,13 +10480,13 @@
       <c r="Z14" s="70"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD14" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE14" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="AE14" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
@@ -10503,13 +10519,13 @@
       <c r="Z15" s="87"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD15" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE15" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE15" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF15" s="21"/>
       <c r="AG15" s="21"/>
@@ -10519,36 +10535,36 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="198" t="s">
+      <c r="D16" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="207"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="199"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="209" t="s">
+      <c r="E16" s="208"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="204"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="213"/>
+      <c r="L16" s="213"/>
+      <c r="M16" s="217" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" s="217"/>
+      <c r="O16" s="217"/>
+      <c r="P16" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="206" t="s">
         <v>187</v>
-      </c>
-      <c r="N16" s="209"/>
-      <c r="O16" s="209"/>
-      <c r="P16" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q16" s="206" t="s">
-        <v>188</v>
       </c>
       <c r="R16" s="206"/>
       <c r="S16" s="206"/>
       <c r="T16" s="206" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U16" s="206"/>
       <c r="V16" s="206"/>
@@ -10558,13 +10574,13 @@
       <c r="Z16" s="70"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD16" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE16" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="AE16" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
@@ -10597,13 +10613,13 @@
       <c r="Z17" s="87"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AD17" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE17" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE17" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
@@ -10613,36 +10629,36 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="198" t="s">
+      <c r="D18" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="199"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="209" t="s">
+      <c r="E18" s="204"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="204"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="217" t="s">
+        <v>189</v>
+      </c>
+      <c r="N18" s="217"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q18" s="206" t="s">
         <v>190</v>
-      </c>
-      <c r="N18" s="209"/>
-      <c r="O18" s="209"/>
-      <c r="P18" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q18" s="206" t="s">
-        <v>191</v>
       </c>
       <c r="R18" s="206"/>
       <c r="S18" s="206"/>
       <c r="T18" s="206" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U18" s="206"/>
       <c r="V18" s="206"/>
@@ -10652,13 +10668,13 @@
       <c r="Z18" s="70"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AD18" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE18" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="AE18" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
@@ -10691,13 +10707,13 @@
       <c r="Z19" s="87"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD19" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE19" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE19" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
@@ -10707,36 +10723,36 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="198" t="s">
+      <c r="D20" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="199"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="209" t="s">
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="204"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="213"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="217" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20" s="217"/>
+      <c r="O20" s="217"/>
+      <c r="P20" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q20" s="206" t="s">
         <v>193</v>
-      </c>
-      <c r="N20" s="209"/>
-      <c r="O20" s="209"/>
-      <c r="P20" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q20" s="206" t="s">
-        <v>194</v>
       </c>
       <c r="R20" s="206"/>
       <c r="S20" s="206"/>
       <c r="T20" s="206" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U20" s="206"/>
       <c r="V20" s="206"/>
@@ -10746,13 +10762,13 @@
       <c r="Z20" s="70"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD20" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE20" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="AE20" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
@@ -10785,13 +10801,13 @@
       <c r="Z21" s="87"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD21" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE21" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE21" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
@@ -10801,36 +10817,36 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="198" t="s">
+      <c r="D22" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="199"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="209" t="s">
+      <c r="E22" s="208"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="204"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="213"/>
+      <c r="L22" s="213"/>
+      <c r="M22" s="217" t="s">
+        <v>194</v>
+      </c>
+      <c r="N22" s="217"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="206" t="s">
         <v>195</v>
-      </c>
-      <c r="N22" s="209"/>
-      <c r="O22" s="209"/>
-      <c r="P22" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q22" s="206" t="s">
-        <v>196</v>
       </c>
       <c r="R22" s="206"/>
       <c r="S22" s="206"/>
       <c r="T22" s="206" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U22" s="206"/>
       <c r="V22" s="206"/>
@@ -10840,13 +10856,13 @@
       <c r="Z22" s="70"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD22" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE22" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="AE22" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="AF22" s="21"/>
       <c r="AG22" s="21"/>
@@ -10879,13 +10895,13 @@
       <c r="Z23" s="87"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AD23" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE23" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE23" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF23" s="21"/>
       <c r="AG23" s="21"/>
@@ -10895,36 +10911,36 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="198" t="s">
+      <c r="D24" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="207"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="199"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="211" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="211"/>
-      <c r="L24" s="211"/>
-      <c r="M24" s="209" t="s">
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="204"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="223" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="217" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="209"/>
-      <c r="O24" s="209"/>
+      <c r="N24" s="217"/>
+      <c r="O24" s="217"/>
       <c r="P24" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="206" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R24" s="206"/>
       <c r="S24" s="206"/>
       <c r="T24" s="206" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U24" s="206"/>
       <c r="V24" s="206"/>
@@ -10934,13 +10950,13 @@
       <c r="Z24" s="70"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD24" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE24" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="AE24" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="AF24" s="21"/>
       <c r="AG24" s="21"/>
@@ -10973,13 +10989,13 @@
       <c r="Z25" s="87"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD25" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE25" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="AE25" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="AF25" s="21"/>
       <c r="AG25" s="21"/>
@@ -10989,36 +11005,36 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="198" t="s">
+      <c r="D26" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="199"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="199"/>
-      <c r="I26" s="200"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="204"/>
+      <c r="I26" s="205"/>
       <c r="J26" s="206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K26" s="206"/>
       <c r="L26" s="206"/>
-      <c r="M26" s="210" t="s">
-        <v>180</v>
-      </c>
-      <c r="N26" s="210"/>
-      <c r="O26" s="210"/>
+      <c r="M26" s="224" t="s">
+        <v>179</v>
+      </c>
+      <c r="N26" s="224"/>
+      <c r="O26" s="224"/>
       <c r="P26" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="206" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R26" s="206"/>
       <c r="S26" s="206"/>
       <c r="T26" s="206" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U26" s="206"/>
       <c r="V26" s="206"/>
@@ -11028,13 +11044,13 @@
       <c r="Z26" s="70"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD26" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE26" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF26" s="21"/>
       <c r="AG26" s="21"/>
@@ -11067,13 +11083,13 @@
       <c r="Z27" s="87"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD27" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE27" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF27" s="21"/>
       <c r="AG27" s="21"/>
@@ -11083,18 +11099,18 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="198" t="s">
+      <c r="D28" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="207"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="H28" s="207"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="209" t="s">
-        <v>202</v>
+      <c r="E28" s="208"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="208"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="217" t="s">
+        <v>201</v>
       </c>
       <c r="K28" s="206"/>
       <c r="L28" s="206"/>
@@ -11104,15 +11120,15 @@
       <c r="N28" s="206"/>
       <c r="O28" s="206"/>
       <c r="P28" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R28" s="206"/>
       <c r="S28" s="206"/>
-      <c r="T28" s="209" t="s">
-        <v>204</v>
+      <c r="T28" s="217" t="s">
+        <v>203</v>
       </c>
       <c r="U28" s="206"/>
       <c r="V28" s="206"/>
@@ -11122,13 +11138,13 @@
       <c r="Z28" s="70"/>
       <c r="AB28" s="16"/>
       <c r="AC28" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD28" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE28" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF28" s="21"/>
       <c r="AG28" s="21"/>
@@ -11161,13 +11177,13 @@
       <c r="Z29" s="87"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD29" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AE29" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF29" s="21"/>
       <c r="AG29" s="21"/>
@@ -11177,36 +11193,36 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="191" t="s">
+      <c r="D30" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="192"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="191" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" s="192"/>
-      <c r="I30" s="193"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="228" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="229"/>
+      <c r="I30" s="230"/>
       <c r="J30" s="206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K30" s="206"/>
       <c r="L30" s="206"/>
       <c r="M30" s="206" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N30" s="206"/>
       <c r="O30" s="206"/>
       <c r="P30" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R30" s="206"/>
       <c r="S30" s="206"/>
       <c r="T30" s="206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U30" s="206"/>
       <c r="V30" s="206"/>
@@ -11216,13 +11232,13 @@
       <c r="Z30" s="70"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD30" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AE30" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF30" s="21"/>
       <c r="AG30" s="21"/>
@@ -11255,13 +11271,13 @@
       <c r="Z31" s="87"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD31" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE31" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF31" s="21"/>
       <c r="AG31" s="21"/>
@@ -11271,39 +11287,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="194" t="s">
+      <c r="D32" s="218" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="225"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="218" t="s">
         <v>208</v>
       </c>
-      <c r="E32" s="195"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="194" t="s">
+      <c r="H32" s="225"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="221" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="221"/>
+      <c r="L32" s="221"/>
+      <c r="M32" s="214" t="s">
         <v>209</v>
       </c>
-      <c r="H32" s="195"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="205" t="s">
-        <v>169</v>
-      </c>
-      <c r="K32" s="205"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="202" t="s">
+      <c r="N32" s="215"/>
+      <c r="O32" s="227"/>
+      <c r="P32" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" s="218" t="s">
         <v>210</v>
       </c>
-      <c r="N32" s="203"/>
-      <c r="O32" s="204"/>
-      <c r="P32" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q32" s="194" t="s">
+      <c r="R32" s="225"/>
+      <c r="S32" s="226"/>
+      <c r="T32" s="214" t="s">
         <v>211</v>
       </c>
-      <c r="R32" s="195"/>
-      <c r="S32" s="196"/>
-      <c r="T32" s="202" t="s">
-        <v>212</v>
-      </c>
-      <c r="U32" s="203"/>
-      <c r="V32" s="204"/>
+      <c r="U32" s="215"/>
+      <c r="V32" s="227"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11322,39 +11338,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="198" t="s">
+      <c r="D33" s="203" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="204"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="203" t="s">
         <v>208</v>
       </c>
-      <c r="E33" s="199"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="198" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="199"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="202" t="s">
+      <c r="H33" s="204"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="213"/>
+      <c r="L33" s="213"/>
+      <c r="M33" s="214" t="s">
+        <v>212</v>
+      </c>
+      <c r="N33" s="215"/>
+      <c r="O33" s="227"/>
+      <c r="P33" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q33" s="218" t="s">
         <v>213</v>
       </c>
-      <c r="N33" s="203"/>
-      <c r="O33" s="204"/>
-      <c r="P33" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q33" s="194" t="s">
+      <c r="R33" s="225"/>
+      <c r="S33" s="226"/>
+      <c r="T33" s="214" t="s">
         <v>214</v>
       </c>
-      <c r="R33" s="195"/>
-      <c r="S33" s="196"/>
-      <c r="T33" s="202" t="s">
-        <v>215</v>
-      </c>
-      <c r="U33" s="203"/>
-      <c r="V33" s="204"/>
+      <c r="U33" s="215"/>
+      <c r="V33" s="227"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11373,43 +11389,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="198" t="s">
+      <c r="D34" s="203" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="204"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="203" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="199"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="198" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34" s="199"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="K34" s="201"/>
-      <c r="L34" s="201"/>
-      <c r="M34" s="194" t="s">
+      <c r="H34" s="204"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="K34" s="213"/>
+      <c r="L34" s="213"/>
+      <c r="M34" s="218" t="s">
+        <v>215</v>
+      </c>
+      <c r="N34" s="225"/>
+      <c r="O34" s="226"/>
+      <c r="P34" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q34" s="218" t="s">
         <v>216</v>
       </c>
-      <c r="N34" s="195"/>
-      <c r="O34" s="196"/>
-      <c r="P34" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q34" s="194" t="s">
+      <c r="R34" s="225"/>
+      <c r="S34" s="226"/>
+      <c r="T34" s="214" t="s">
         <v>217</v>
       </c>
-      <c r="R34" s="195"/>
-      <c r="S34" s="196"/>
-      <c r="T34" s="202" t="s">
-        <v>218</v>
-      </c>
-      <c r="U34" s="203"/>
-      <c r="V34" s="204"/>
-      <c r="W34" s="188"/>
-      <c r="X34" s="189"/>
-      <c r="Y34" s="189"/>
-      <c r="Z34" s="190"/>
+      <c r="U34" s="215"/>
+      <c r="V34" s="227"/>
+      <c r="W34" s="231"/>
+      <c r="X34" s="232"/>
+      <c r="Y34" s="232"/>
+      <c r="Z34" s="233"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11424,43 +11440,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="191" t="s">
+      <c r="D35" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="192"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="191" t="s">
+      <c r="E35" s="229"/>
+      <c r="F35" s="230"/>
+      <c r="G35" s="228" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="229"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="H35" s="192"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194" t="s">
+      <c r="K35" s="225"/>
+      <c r="L35" s="226"/>
+      <c r="M35" s="218" t="s">
+        <v>215</v>
+      </c>
+      <c r="N35" s="225"/>
+      <c r="O35" s="226"/>
+      <c r="P35" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q35" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="K35" s="195"/>
-      <c r="L35" s="196"/>
-      <c r="M35" s="194" t="s">
-        <v>216</v>
-      </c>
-      <c r="N35" s="195"/>
-      <c r="O35" s="196"/>
-      <c r="P35" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q35" s="194" t="s">
+      <c r="R35" s="225"/>
+      <c r="S35" s="226"/>
+      <c r="T35" s="234" t="s">
         <v>221</v>
       </c>
-      <c r="R35" s="195"/>
-      <c r="S35" s="196"/>
-      <c r="T35" s="197" t="s">
-        <v>222</v>
-      </c>
-      <c r="U35" s="195"/>
-      <c r="V35" s="196"/>
-      <c r="W35" s="188"/>
-      <c r="X35" s="189"/>
-      <c r="Y35" s="189"/>
-      <c r="Z35" s="190"/>
+      <c r="U35" s="225"/>
+      <c r="V35" s="226"/>
+      <c r="W35" s="231"/>
+      <c r="X35" s="232"/>
+      <c r="Y35" s="232"/>
+      <c r="Z35" s="233"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12265,29 +12281,29 @@
     </row>
     <row r="60" spans="3:34" ht="15" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
-      <c r="P60" s="156"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="137"/>
+      <c r="O60" s="137"/>
+      <c r="P60" s="137"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="156"/>
-      <c r="X60" s="156"/>
-      <c r="Y60" s="156"/>
-      <c r="Z60" s="157"/>
+      <c r="W60" s="137"/>
+      <c r="X60" s="137"/>
+      <c r="Y60" s="137"/>
+      <c r="Z60" s="138"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12341,29 +12357,92 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -12388,92 +12467,29 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12511,64 +12527,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="15" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="258" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="259"/>
-      <c r="M2" s="259"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="259"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="260"/>
+      <c r="B2" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="237"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
     </row>
     <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="C3" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="178"/>
-      <c r="J3" s="179"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="178" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="179"/>
+      <c r="L3" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="160"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12581,10 +12597,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
     </row>
     <row r="4" spans="2:32" ht="26.25" thickBot="1">
       <c r="B4" s="2"/>
@@ -12620,71 +12636,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="261" t="s">
+      <c r="C5" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261" t="s">
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="261"/>
-      <c r="H5" s="261"/>
-      <c r="I5" s="261" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="261"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="261" t="s">
-        <v>224</v>
-      </c>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261" t="s">
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238" t="s">
+        <v>223</v>
+      </c>
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="238" t="s">
+        <v>165</v>
+      </c>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238" t="s">
         <v>166</v>
       </c>
-      <c r="P5" s="261"/>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261" t="s">
-        <v>167</v>
-      </c>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
-      <c r="U5" s="261" t="s">
+      <c r="S5" s="238"/>
+      <c r="T5" s="238"/>
+      <c r="U5" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="261"/>
-      <c r="W5" s="261"/>
-      <c r="X5" s="263"/>
+      <c r="V5" s="238"/>
+      <c r="W5" s="238"/>
+      <c r="X5" s="240"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="15" thickBot="1">
-      <c r="B6" s="138"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="262"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="262"/>
-      <c r="O6" s="262"/>
-      <c r="P6" s="262"/>
-      <c r="Q6" s="262"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="262"/>
-      <c r="T6" s="262"/>
-      <c r="U6" s="262"/>
-      <c r="V6" s="262"/>
-      <c r="W6" s="262"/>
-      <c r="X6" s="264"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="239"/>
+      <c r="I6" s="239"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="239"/>
+      <c r="L6" s="239"/>
+      <c r="M6" s="239"/>
+      <c r="N6" s="239"/>
+      <c r="O6" s="239"/>
+      <c r="P6" s="239"/>
+      <c r="Q6" s="239"/>
+      <c r="R6" s="239"/>
+      <c r="S6" s="239"/>
+      <c r="T6" s="239"/>
+      <c r="U6" s="239"/>
+      <c r="V6" s="239"/>
+      <c r="W6" s="239"/>
+      <c r="X6" s="241"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12709,40 +12725,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="250" t="s">
+      <c r="C7" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="251"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="250" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="251"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="247" t="s">
+      <c r="D7" s="243"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="242" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="243"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245" t="s">
+        <v>224</v>
+      </c>
+      <c r="J7" s="246"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248" t="s">
         <v>225</v>
       </c>
-      <c r="J7" s="253"/>
-      <c r="K7" s="254"/>
-      <c r="L7" s="255" t="s">
+      <c r="M7" s="249"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="245" t="s">
         <v>226</v>
       </c>
-      <c r="M7" s="256"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="247" t="s">
+      <c r="P7" s="246"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="251" t="s">
         <v>227</v>
       </c>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="235" t="s">
-        <v>228</v>
-      </c>
-      <c r="S7" s="189"/>
-      <c r="T7" s="236"/>
-      <c r="U7" s="237"/>
-      <c r="V7" s="238"/>
-      <c r="W7" s="238"/>
-      <c r="X7" s="239"/>
+      <c r="S7" s="232"/>
+      <c r="T7" s="252"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="254"/>
+      <c r="W7" s="254"/>
+      <c r="X7" s="255"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12757,49 +12773,49 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="244" t="s">
+      <c r="C8" s="260" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="245"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="244" t="s">
+      <c r="D8" s="261"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="260" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="261"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="251" t="s">
+        <v>228</v>
+      </c>
+      <c r="J8" s="258"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="251" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="245"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="235" t="s">
+      <c r="M8" s="258"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="242"/>
-      <c r="K8" s="243"/>
-      <c r="L8" s="235" t="s">
-        <v>180</v>
-      </c>
-      <c r="M8" s="242"/>
-      <c r="N8" s="243"/>
-      <c r="O8" s="247" t="s">
+      <c r="P8" s="263"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="251" t="s">
         <v>230</v>
       </c>
-      <c r="P8" s="248"/>
-      <c r="Q8" s="249"/>
-      <c r="R8" s="235" t="s">
-        <v>231</v>
-      </c>
-      <c r="S8" s="242"/>
-      <c r="T8" s="243"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="259"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
       <c r="X8" s="81"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB8" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC8" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
@@ -12831,13 +12847,13 @@
       <c r="X9" s="93"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB9" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="AB9" s="21" t="s">
-        <v>278</v>
-      </c>
       <c r="AC9" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
@@ -12847,34 +12863,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="188" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="240"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="188" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="240"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="235" t="s">
+      <c r="C10" s="231" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="256"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="231" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="256"/>
+      <c r="H10" s="257"/>
+      <c r="I10" s="251" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="258"/>
+      <c r="K10" s="259"/>
+      <c r="L10" s="251" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="258"/>
+      <c r="N10" s="259"/>
+      <c r="O10" s="251" t="s">
         <v>232</v>
       </c>
-      <c r="J10" s="242"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="235" t="s">
-        <v>210</v>
-      </c>
-      <c r="M10" s="242"/>
-      <c r="N10" s="243"/>
-      <c r="O10" s="235" t="s">
-        <v>233</v>
-      </c>
-      <c r="P10" s="242"/>
-      <c r="Q10" s="243"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="242"/>
-      <c r="T10" s="243"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="259"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13375,22 +13391,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13407,6 +13407,22 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
